--- a/EEOB563_Final_Project_Character_Scoring.xlsx
+++ b/EEOB563_Final_Project_Character_Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="0" windowWidth="9460" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20960" yWindow="0" windowWidth="8580" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Character Trait Descriptions" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="329">
   <si>
     <t>Physiological Traits</t>
   </si>
@@ -179,12 +179,6 @@
     <t>2 = full range of human skin tones</t>
   </si>
   <si>
-    <t>3 = green skin tones</t>
-  </si>
-  <si>
-    <t>4 = purple and blue skin tones</t>
-  </si>
-  <si>
     <t>1 = human fair skin tones</t>
   </si>
   <si>
@@ -638,12 +632,6 @@
     <t>1 = noble</t>
   </si>
   <si>
-    <t>2 = evil</t>
-  </si>
-  <si>
-    <t>3 = "force of nature"</t>
-  </si>
-  <si>
     <t>1 = rarely entangled</t>
   </si>
   <si>
@@ -668,9 +656,6 @@
     <t>2 = evolved naturally</t>
   </si>
   <si>
-    <t>3 = created by mortals</t>
-  </si>
-  <si>
     <t>1 = primary</t>
   </si>
   <si>
@@ -719,15 +704,6 @@
     <t>Orcs</t>
   </si>
   <si>
-    <t>Drow</t>
-  </si>
-  <si>
-    <t>5 = variable</t>
-  </si>
-  <si>
-    <t>Elves (Mer)</t>
-  </si>
-  <si>
     <t>Night Elves</t>
   </si>
   <si>
@@ -854,13 +830,184 @@
     <t>Hair Growth on Head</t>
   </si>
   <si>
-    <t>2 = less than average human</t>
-  </si>
-  <si>
-    <t>4 = more than average human</t>
-  </si>
-  <si>
     <t>Dwarves (Dwemer)</t>
+  </si>
+  <si>
+    <t>Drow (Dark Elves)</t>
+  </si>
+  <si>
+    <t>Dark Eldar</t>
+  </si>
+  <si>
+    <t>Tusks Present</t>
+  </si>
+  <si>
+    <t>1 = flat teeth</t>
+  </si>
+  <si>
+    <t>2 = sharpened teeth</t>
+  </si>
+  <si>
+    <t>3 = no teeth</t>
+  </si>
+  <si>
+    <t>Associated Habitat</t>
+  </si>
+  <si>
+    <t>1 = in the open world</t>
+  </si>
+  <si>
+    <t>2 = in forests and woods</t>
+  </si>
+  <si>
+    <t>3 = underground or within mountains</t>
+  </si>
+  <si>
+    <t>4 = unassociated with particular habitat</t>
+  </si>
+  <si>
+    <t>Type of Teeth</t>
+  </si>
+  <si>
+    <t>Reproduction</t>
+  </si>
+  <si>
+    <t>1 = sexual</t>
+  </si>
+  <si>
+    <t>2 = asexual</t>
+  </si>
+  <si>
+    <t>3 = none</t>
+  </si>
+  <si>
+    <t>3 = created by tech or magic</t>
+  </si>
+  <si>
+    <t>3 = characteristic</t>
+  </si>
+  <si>
+    <t>2 = minimal</t>
+  </si>
+  <si>
+    <t>Outgroups</t>
+  </si>
+  <si>
+    <t>Protoss</t>
+  </si>
+  <si>
+    <t>Zerg</t>
+  </si>
+  <si>
+    <t>Tyranids</t>
+  </si>
+  <si>
+    <t>Xenomorphs</t>
+  </si>
+  <si>
+    <t>Skeletal Structure</t>
+  </si>
+  <si>
+    <t>1 = endoskeleton</t>
+  </si>
+  <si>
+    <t>2 = exoskeleton</t>
+  </si>
+  <si>
+    <t>4 = monstrous</t>
+  </si>
+  <si>
+    <t>5 = golden skin tones</t>
+  </si>
+  <si>
+    <t>High Elves (Altmer)</t>
+  </si>
+  <si>
+    <t>Dark Elves (Dunmer)</t>
+  </si>
+  <si>
+    <t>Orcs (Orsimer)</t>
+  </si>
+  <si>
+    <t>5 = no ears</t>
+  </si>
+  <si>
+    <t>6 = varies among members of group</t>
+  </si>
+  <si>
+    <t>5 = varies among members of group</t>
+  </si>
+  <si>
+    <t>6 = black</t>
+  </si>
+  <si>
+    <t>7 = variable</t>
+  </si>
+  <si>
+    <t>3 = no eyes</t>
+  </si>
+  <si>
+    <t>Cranium</t>
+  </si>
+  <si>
+    <t>1 = globose human-like</t>
+  </si>
+  <si>
+    <t>2 = elongated</t>
+  </si>
+  <si>
+    <t>Joviality</t>
+  </si>
+  <si>
+    <t>1 = subtly expressed</t>
+  </si>
+  <si>
+    <t>2 = openly expressed</t>
+  </si>
+  <si>
+    <t>3 = overtly expressed</t>
+  </si>
+  <si>
+    <t>4 = none expressed</t>
+  </si>
+  <si>
+    <t>3 = green or grey skin tones</t>
+  </si>
+  <si>
+    <t>4 = purple or blue or grey skin tones</t>
+  </si>
+  <si>
+    <t>Hedonistic</t>
+  </si>
+  <si>
+    <t>Sadistic</t>
+  </si>
+  <si>
+    <t>1 = somewhat</t>
+  </si>
+  <si>
+    <t>2 = moderately so</t>
+  </si>
+  <si>
+    <t>3 = overly so</t>
+  </si>
+  <si>
+    <t>4 = excessively so</t>
+  </si>
+  <si>
+    <t>5 = not expressed</t>
+  </si>
+  <si>
+    <t>2 = antagonistic</t>
+  </si>
+  <si>
+    <t>3 = evil</t>
+  </si>
+  <si>
+    <t>4 = "force of nature"</t>
+  </si>
+  <si>
+    <t>Associated Homeland Habitat</t>
   </si>
 </sst>
 </file>
@@ -1043,21 +1190,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -1156,8 +1288,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1231,8 +1376,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1250,6 +1419,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,7 +1437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,23 +1446,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1302,16 +1471,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1326,11 +1495,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1367,6 +1552,18 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1403,6 +1600,18 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1732,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1768,7 +1977,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1801,353 +2010,419 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+        <v>282</v>
+      </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="5" t="s">
+    <row r="39" spans="1:17">
+      <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1"/>
-    <row r="37" spans="1:17" ht="15" thickBot="1">
-      <c r="A37" s="2" t="s">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" thickBot="1"/>
+    <row r="42" spans="1:17" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="B42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="3" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1"/>
-    <row r="55" spans="1:17" ht="15" thickBot="1">
-      <c r="A55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="3" t="s">
-        <v>241</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" ht="15" thickBot="1"/>
+    <row r="63" spans="1:17" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2163,35 +2438,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15" thickBot="1">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2207,7 +2482,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2229,30 +2504,38 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>244</v>
+      </c>
+      <c r="S9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2270,973 +2553,1145 @@
       <c r="M10" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="M11" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" t="s">
+        <v>298</v>
+      </c>
+      <c r="S11" t="s">
+        <v>305</v>
+      </c>
+      <c r="V11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" t="s">
+        <v>261</v>
+      </c>
+      <c r="J14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" t="s">
+        <v>257</v>
+      </c>
+      <c r="M18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" t="s">
+        <v>250</v>
+      </c>
+      <c r="J19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="P11" t="s">
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>288</v>
+      </c>
+      <c r="J27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="J28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15" thickBot="1">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" t="s">
+        <v>105</v>
+      </c>
+      <c r="M44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>117</v>
+      </c>
+      <c r="J45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" t="s">
+        <v>127</v>
+      </c>
+      <c r="M47" t="s">
+        <v>128</v>
+      </c>
+      <c r="P47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+      <c r="M49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>137</v>
+      </c>
+      <c r="J50" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" t="s">
+        <v>143</v>
+      </c>
+      <c r="P51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" t="s">
+        <v>146</v>
+      </c>
+      <c r="M52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" t="s">
+        <v>154</v>
+      </c>
+      <c r="M54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" t="s">
+        <v>158</v>
+      </c>
+      <c r="M55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J56" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" t="s">
+        <v>162</v>
+      </c>
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="D57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57" t="s">
+        <v>166</v>
+      </c>
+      <c r="M57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="D58" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G58" t="s">
+        <v>321</v>
+      </c>
+      <c r="J58" t="s">
+        <v>322</v>
+      </c>
+      <c r="M58" t="s">
+        <v>323</v>
+      </c>
+      <c r="P58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="D59" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" t="s">
+        <v>321</v>
+      </c>
+      <c r="J59" t="s">
+        <v>322</v>
+      </c>
+      <c r="M59" t="s">
+        <v>323</v>
+      </c>
+      <c r="P59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="D60" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G60" t="s">
+        <v>313</v>
+      </c>
+      <c r="J60" t="s">
+        <v>314</v>
+      </c>
+      <c r="M60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15" thickBot="1">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:22" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" t="s">
+        <v>325</v>
+      </c>
+      <c r="J64" t="s">
+        <v>326</v>
+      </c>
+      <c r="M64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" t="s">
+        <v>170</v>
+      </c>
+      <c r="J65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G12" t="s">
-        <v>269</v>
-      </c>
-      <c r="J12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" t="s">
-        <v>264</v>
-      </c>
-      <c r="J16" t="s">
-        <v>265</v>
-      </c>
-      <c r="M16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="D66" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66" t="s">
+        <v>235</v>
+      </c>
+      <c r="J66" t="s">
+        <v>236</v>
+      </c>
+      <c r="M66" t="s">
+        <v>237</v>
+      </c>
+      <c r="P66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" t="s">
+        <v>174</v>
+      </c>
+      <c r="M67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
         <v>60</v>
       </c>
-      <c r="M21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G68" t="s">
+        <v>176</v>
+      </c>
+      <c r="J68" t="s">
+        <v>177</v>
+      </c>
+      <c r="M68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" t="s">
+        <v>181</v>
+      </c>
+      <c r="J69" t="s">
+        <v>182</v>
+      </c>
+      <c r="M69" t="s">
+        <v>183</v>
+      </c>
+      <c r="P69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J70" t="s">
+        <v>187</v>
+      </c>
+      <c r="M70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" t="s">
+        <v>195</v>
+      </c>
+      <c r="J71" t="s">
+        <v>196</v>
+      </c>
+      <c r="M71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72" t="s">
+        <v>200</v>
+      </c>
+      <c r="M72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>203</v>
+      </c>
+      <c r="G73" t="s">
+        <v>204</v>
+      </c>
+      <c r="J73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" t="s">
+        <v>208</v>
+      </c>
+      <c r="J74" t="s">
+        <v>206</v>
+      </c>
+      <c r="M74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" t="s">
+        <v>210</v>
+      </c>
+      <c r="J75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+      <c r="G76" t="s">
+        <v>213</v>
+      </c>
+      <c r="J76" t="s">
+        <v>212</v>
+      </c>
+      <c r="M76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="D77" t="s">
+        <v>211</v>
+      </c>
+      <c r="G77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J77" t="s">
+        <v>212</v>
+      </c>
+      <c r="M77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+      <c r="M78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>113</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+      <c r="M79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J23" t="s">
-        <v>250</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="G80" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" t="s">
-        <v>83</v>
-      </c>
-      <c r="M29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" t="s">
-        <v>96</v>
-      </c>
-      <c r="P33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" t="s">
-        <v>94</v>
-      </c>
-      <c r="M34" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1">
-      <c r="A37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" t="s">
-        <v>103</v>
-      </c>
-      <c r="M38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" t="s">
-        <v>107</v>
-      </c>
-      <c r="M39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" t="s">
-        <v>120</v>
-      </c>
-      <c r="M40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" t="s">
-        <v>124</v>
-      </c>
-      <c r="J41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" t="s">
-        <v>129</v>
-      </c>
-      <c r="M42" t="s">
-        <v>130</v>
-      </c>
-      <c r="P42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" t="s">
-        <v>136</v>
-      </c>
-      <c r="M44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" t="s">
-        <v>140</v>
-      </c>
-      <c r="M45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" t="s">
-        <v>144</v>
-      </c>
-      <c r="M46" t="s">
-        <v>145</v>
-      </c>
-      <c r="P46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" t="s">
-        <v>148</v>
-      </c>
-      <c r="M47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" t="s">
-        <v>151</v>
-      </c>
-      <c r="J48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" t="s">
-        <v>155</v>
-      </c>
-      <c r="J49" t="s">
-        <v>156</v>
-      </c>
-      <c r="M49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
-        <v>159</v>
-      </c>
-      <c r="J50" t="s">
-        <v>160</v>
-      </c>
-      <c r="M50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s">
-        <v>162</v>
-      </c>
-      <c r="J51" t="s">
-        <v>163</v>
-      </c>
-      <c r="M51" t="s">
-        <v>164</v>
-      </c>
-      <c r="P51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="D52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" t="s">
-        <v>167</v>
-      </c>
-      <c r="J52" t="s">
-        <v>168</v>
-      </c>
-      <c r="M52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" ht="15" thickBot="1">
-      <c r="A55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" t="s">
-        <v>205</v>
-      </c>
-      <c r="J56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G57" t="s">
-        <v>172</v>
-      </c>
-      <c r="J57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-      <c r="G58" t="s">
-        <v>243</v>
-      </c>
-      <c r="J58" t="s">
-        <v>244</v>
-      </c>
-      <c r="M58" t="s">
-        <v>245</v>
-      </c>
-      <c r="P58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" t="s">
-        <v>175</v>
-      </c>
-      <c r="J59" t="s">
-        <v>176</v>
-      </c>
-      <c r="M59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" t="s">
-        <v>178</v>
-      </c>
-      <c r="J60" t="s">
-        <v>179</v>
-      </c>
-      <c r="M60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
-      </c>
-      <c r="G61" t="s">
-        <v>183</v>
-      </c>
-      <c r="J61" t="s">
-        <v>184</v>
-      </c>
-      <c r="M61" t="s">
-        <v>185</v>
-      </c>
-      <c r="P61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" t="s">
-        <v>188</v>
-      </c>
-      <c r="J62" t="s">
-        <v>189</v>
-      </c>
-      <c r="M62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63" t="s">
-        <v>197</v>
-      </c>
-      <c r="J63" t="s">
-        <v>198</v>
-      </c>
-      <c r="M63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" t="s">
-        <v>200</v>
-      </c>
-      <c r="G64" t="s">
-        <v>201</v>
-      </c>
-      <c r="J64" t="s">
-        <v>202</v>
-      </c>
-      <c r="M64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s">
-        <v>207</v>
-      </c>
-      <c r="G65" t="s">
-        <v>208</v>
-      </c>
-      <c r="J65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" t="s">
-        <v>211</v>
-      </c>
-      <c r="G66" t="s">
-        <v>212</v>
-      </c>
-      <c r="J66" t="s">
-        <v>210</v>
-      </c>
-      <c r="M66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" t="s">
-        <v>213</v>
-      </c>
-      <c r="G67" t="s">
-        <v>214</v>
-      </c>
-      <c r="J67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" t="s">
-        <v>218</v>
-      </c>
-      <c r="J68" t="s">
-        <v>217</v>
-      </c>
-      <c r="M68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="D69" t="s">
-        <v>216</v>
-      </c>
-      <c r="G69" t="s">
-        <v>218</v>
-      </c>
-      <c r="J69" t="s">
-        <v>217</v>
-      </c>
-      <c r="M69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" t="s">
-        <v>111</v>
-      </c>
-      <c r="J70" t="s">
-        <v>112</v>
-      </c>
-      <c r="M70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" t="s">
-        <v>115</v>
-      </c>
-      <c r="J71" t="s">
-        <v>116</v>
-      </c>
-      <c r="M71" t="s">
-        <v>117</v>
+      <c r="J80" t="s">
+        <v>279</v>
+      </c>
+      <c r="M80" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3252,13 +3707,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3266,86 +3721,98 @@
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" customWidth="1"/>
-    <col min="18" max="19" width="12.83203125" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
     <col min="23" max="23" width="14.83203125" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" customWidth="1"/>
-    <col min="26" max="26" width="20.83203125" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" customWidth="1"/>
+    <col min="26" max="26" width="5.83203125" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" customWidth="1"/>
     <col min="29" max="30" width="8.83203125" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" customWidth="1"/>
-    <col min="32" max="33" width="8.83203125" customWidth="1"/>
-    <col min="34" max="34" width="15.83203125" customWidth="1"/>
-    <col min="35" max="35" width="9.83203125" customWidth="1"/>
-    <col min="36" max="37" width="8.83203125" customWidth="1"/>
-    <col min="38" max="38" width="13.83203125" customWidth="1"/>
-    <col min="39" max="39" width="17.83203125" customWidth="1"/>
+    <col min="31" max="31" width="7.83203125" customWidth="1"/>
+    <col min="32" max="33" width="12.83203125" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" customWidth="1"/>
+    <col min="35" max="35" width="18.83203125" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" customWidth="1"/>
+    <col min="37" max="37" width="14.83203125" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" customWidth="1"/>
+    <col min="39" max="39" width="8.83203125" customWidth="1"/>
     <col min="40" max="40" width="20.83203125" customWidth="1"/>
-    <col min="41" max="41" width="17.83203125" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125" customWidth="1"/>
-    <col min="44" max="44" width="17.83203125" customWidth="1"/>
-    <col min="45" max="45" width="9.83203125" customWidth="1"/>
-    <col min="46" max="46" width="6.83203125" customWidth="1"/>
-    <col min="47" max="48" width="14.83203125" customWidth="1"/>
-    <col min="49" max="49" width="15.83203125" customWidth="1"/>
-    <col min="50" max="50" width="14.83203125" customWidth="1"/>
+    <col min="41" max="41" width="10.83203125" customWidth="1"/>
+    <col min="43" max="44" width="8.83203125" customWidth="1"/>
+    <col min="45" max="45" width="6.83203125" customWidth="1"/>
+    <col min="46" max="47" width="8.83203125" customWidth="1"/>
+    <col min="48" max="48" width="15.83203125" customWidth="1"/>
+    <col min="49" max="49" width="9.83203125" customWidth="1"/>
+    <col min="50" max="51" width="7.83203125" customWidth="1"/>
+    <col min="52" max="52" width="9.83203125" customWidth="1"/>
+    <col min="53" max="54" width="8.83203125" customWidth="1"/>
+    <col min="55" max="55" width="13.83203125" customWidth="1"/>
+    <col min="56" max="56" width="17.83203125" customWidth="1"/>
+    <col min="57" max="57" width="20.83203125" customWidth="1"/>
+    <col min="58" max="58" width="17.83203125" customWidth="1"/>
+    <col min="60" max="60" width="8.83203125" customWidth="1"/>
+    <col min="61" max="61" width="17.83203125" customWidth="1"/>
+    <col min="62" max="62" width="9.83203125" customWidth="1"/>
+    <col min="63" max="63" width="6.83203125" customWidth="1"/>
+    <col min="64" max="65" width="14.83203125" customWidth="1"/>
+    <col min="66" max="66" width="15.83203125" customWidth="1"/>
+    <col min="67" max="68" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15" thickBot="1">
+    <row r="1" spans="1:68" ht="15" thickBot="1">
       <c r="A1" s="8"/>
       <c r="B1" s="31"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="15"/>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="28" t="s">
-        <v>23</v>
-      </c>
+      <c r="AI1" s="29"/>
       <c r="AJ1" s="29"/>
       <c r="AK1" s="29"/>
       <c r="AL1" s="29"/>
@@ -3360,186 +3827,300 @@
       <c r="AU1" s="29"/>
       <c r="AV1" s="29"/>
       <c r="AW1" s="29"/>
-      <c r="AX1" s="30"/>
-    </row>
-    <row r="2" spans="1:50" s="7" customFormat="1" ht="15" thickBot="1">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="30"/>
+    </row>
+    <row r="2" spans="1:68" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="S2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="V2" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="Y2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="Z2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="AA2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="AB2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="AC2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="AE2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="AF2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="AG2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="AH2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="V2" s="18" t="s">
+      <c r="AI2" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" s="18" t="s">
+      <c r="AK2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AN2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AO2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AP2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AR2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AS2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AU2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AV2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AW2" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX2" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY2" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="BA2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM2" s="18" t="s">
+      <c r="BB2" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="18" t="s">
+      <c r="BE2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="18" t="s">
+      <c r="BF2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="BH2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="BI2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="BJ2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="BK2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="18" t="s">
+      <c r="BL2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="BM2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX2" s="19" t="s">
+      <c r="BN2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:50">
+      <c r="BP2" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
       <c r="A3" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C3" s="37">
         <v>3</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
+      <c r="D3" s="38">
+        <v>2</v>
+      </c>
+      <c r="E3" s="38">
+        <v>2</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38">
+        <v>1</v>
+      </c>
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1</v>
+      </c>
+      <c r="K3" s="38">
+        <v>1</v>
+      </c>
+      <c r="L3" s="38">
+        <v>1</v>
+      </c>
+      <c r="M3" s="38">
+        <v>1</v>
+      </c>
+      <c r="N3" s="38">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>1</v>
+      </c>
+      <c r="R3" s="38">
+        <v>1</v>
+      </c>
+      <c r="S3" s="38">
+        <v>1</v>
+      </c>
+      <c r="T3" s="38">
+        <v>1</v>
+      </c>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38">
+        <v>1</v>
+      </c>
+      <c r="W3" s="38">
+        <v>2</v>
+      </c>
       <c r="X3" s="38"/>
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
@@ -3550,7 +4131,7 @@
       <c r="AE3" s="38"/>
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
+      <c r="AH3" s="37"/>
       <c r="AI3" s="38"/>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="38"/>
@@ -3564,38 +4145,96 @@
       <c r="AS3" s="38"/>
       <c r="AT3" s="38"/>
       <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-    </row>
-    <row r="4" spans="1:50">
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="39"/>
+    </row>
+    <row r="4" spans="1:68">
       <c r="A4" s="21"/>
       <c r="B4" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C4" s="40">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
+        <v>2</v>
+      </c>
+      <c r="S4" s="9">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
@@ -3606,7 +4245,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
+      <c r="AH4" s="40"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
@@ -3622,34 +4261,94 @@
       <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="34"/>
-    </row>
-    <row r="5" spans="1:50">
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="34"/>
+    </row>
+    <row r="5" spans="1:68">
       <c r="A5" s="21"/>
       <c r="B5" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+        <v>225</v>
+      </c>
+      <c r="C5" s="40">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9">
+        <v>3</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1</v>
+      </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
@@ -3660,7 +4359,7 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
+      <c r="AH5" s="40"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
@@ -3676,34 +4375,94 @@
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
-      <c r="AX5" s="34"/>
-    </row>
-    <row r="6" spans="1:50" ht="15" thickBot="1">
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="34"/>
+    </row>
+    <row r="6" spans="1:68" ht="15" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2</v>
+      </c>
+      <c r="S6" s="9">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>3</v>
+      </c>
+      <c r="W6" s="9">
+        <v>3</v>
+      </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
@@ -3714,7 +4473,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
+      <c r="AH6" s="40"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
@@ -3730,38 +4489,96 @@
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
-      <c r="AX6" s="34"/>
-    </row>
-    <row r="7" spans="1:50" ht="14" customHeight="1">
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="34"/>
+    </row>
+    <row r="7" spans="1:68" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C7" s="40">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <v>3</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1</v>
+      </c>
+      <c r="W7" s="9">
+        <v>2</v>
+      </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -3772,7 +4589,7 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
+      <c r="AH7" s="40"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
@@ -3788,36 +4605,94 @@
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
-      <c r="AX7" s="34"/>
-    </row>
-    <row r="8" spans="1:50">
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="34"/>
+    </row>
+    <row r="8" spans="1:68">
       <c r="A8" s="21"/>
       <c r="B8" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C8" s="40">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2</v>
+      </c>
+      <c r="S8" s="9">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
@@ -3826,9 +4701,9 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="40"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
@@ -3840,38 +4715,98 @@
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
+      <c r="AT8" s="10"/>
       <c r="AU8" s="9"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
-      <c r="AX8" s="34"/>
-    </row>
-    <row r="9" spans="1:50">
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="34"/>
+    </row>
+    <row r="9" spans="1:68">
       <c r="A9" s="21"/>
       <c r="B9" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+        <v>270</v>
+      </c>
+      <c r="C9" s="40">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9">
+        <v>1</v>
+      </c>
+      <c r="W9" s="9">
+        <v>1</v>
+      </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
@@ -3880,9 +4815,9 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="40"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
@@ -3894,38 +4829,98 @@
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
+      <c r="AT9" s="10"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
-      <c r="AX9" s="34"/>
-    </row>
-    <row r="10" spans="1:50">
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="34"/>
+    </row>
+    <row r="10" spans="1:68">
       <c r="A10" s="21"/>
       <c r="B10" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+        <v>225</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>3</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1</v>
+      </c>
+      <c r="W10" s="9">
+        <v>2</v>
+      </c>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -3934,9 +4929,9 @@
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="40"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
@@ -3948,38 +4943,98 @@
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
+      <c r="AT10" s="10"/>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
-      <c r="AX10" s="34"/>
-    </row>
-    <row r="11" spans="1:50" ht="15" thickBot="1">
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="34"/>
+    </row>
+    <row r="11" spans="1:68" ht="15" thickBot="1">
       <c r="A11" s="22"/>
       <c r="B11" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="C11" s="40">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <v>2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9">
+        <v>2</v>
+      </c>
+      <c r="S11" s="9">
+        <v>2</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9">
+        <v>3</v>
+      </c>
+      <c r="V11" s="9">
+        <v>1</v>
+      </c>
+      <c r="W11" s="9">
+        <v>1</v>
+      </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -3988,9 +5043,9 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="40"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
@@ -4002,42 +5057,100 @@
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
+      <c r="AT11" s="10"/>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
-      <c r="AX11" s="34"/>
-    </row>
-    <row r="12" spans="1:50">
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="34"/>
+    </row>
+    <row r="12" spans="1:68">
       <c r="A12" s="20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C12" s="40">
         <v>3</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9">
+        <v>3</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>2</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -4046,9 +5159,9 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="40"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
@@ -4060,38 +5173,98 @@
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
+      <c r="AT12" s="10"/>
       <c r="AU12" s="9"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
-      <c r="AX12" s="34"/>
-    </row>
-    <row r="13" spans="1:50">
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="34"/>
+    </row>
+    <row r="13" spans="1:68">
       <c r="A13" s="21"/>
       <c r="B13" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+        <v>299</v>
+      </c>
+      <c r="C13" s="40">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2</v>
+      </c>
+      <c r="S13" s="9">
+        <v>2</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9">
+        <v>2</v>
+      </c>
+      <c r="V13" s="9">
+        <v>1</v>
+      </c>
+      <c r="W13" s="9">
+        <v>1</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -4100,9 +5273,9 @@
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="40"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
@@ -4114,38 +5287,98 @@
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
+      <c r="AT13" s="10"/>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
-      <c r="AX13" s="34"/>
-    </row>
-    <row r="14" spans="1:50">
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="34"/>
+    </row>
+    <row r="14" spans="1:68">
       <c r="A14" s="21"/>
       <c r="B14" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+        <v>300</v>
+      </c>
+      <c r="C14" s="40">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2</v>
+      </c>
+      <c r="S14" s="9">
+        <v>2</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="9">
+        <v>2</v>
+      </c>
+      <c r="V14" s="9">
+        <v>1</v>
+      </c>
+      <c r="W14" s="9">
+        <v>2</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -4154,9 +5387,9 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="40"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
@@ -4168,38 +5401,98 @@
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
+      <c r="AT14" s="10"/>
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
-      <c r="AX14" s="34"/>
-    </row>
-    <row r="15" spans="1:50" ht="15" thickBot="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="34"/>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="40">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>2</v>
+      </c>
+      <c r="S15" s="9">
+        <v>2</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9">
+        <v>3</v>
+      </c>
+      <c r="V15" s="9">
+        <v>1</v>
+      </c>
+      <c r="W15" s="9">
+        <v>2</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -4208,9 +5501,9 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="40"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
@@ -4222,42 +5515,98 @@
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
+      <c r="AT15" s="10"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
-      <c r="AX15" s="34"/>
-    </row>
-    <row r="16" spans="1:50">
-      <c r="A16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>228</v>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="34"/>
+    </row>
+    <row r="16" spans="1:68" ht="15" thickBot="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25" t="s">
+        <v>301</v>
       </c>
       <c r="C16" s="40">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9">
+        <v>2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1</v>
+      </c>
+      <c r="R16" s="9">
+        <v>2</v>
+      </c>
+      <c r="S16" s="9">
+        <v>2</v>
+      </c>
+      <c r="T16" s="9">
+        <v>1</v>
+      </c>
+      <c r="U16" s="9">
+        <v>3</v>
+      </c>
+      <c r="V16" s="9">
+        <v>1</v>
+      </c>
+      <c r="W16" s="9">
+        <v>2</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -4266,9 +5615,9 @@
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="40"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
@@ -4280,38 +5629,100 @@
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
+      <c r="AT16" s="10"/>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
-      <c r="AX16" s="34"/>
-    </row>
-    <row r="17" spans="1:50">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="34"/>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="40">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1</v>
+      </c>
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="9">
+        <v>3</v>
+      </c>
+      <c r="V17" s="9">
+        <v>1</v>
+      </c>
+      <c r="W17" s="9">
+        <v>2</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -4320,9 +5731,9 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="40"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
@@ -4334,38 +5745,98 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
+      <c r="AT17" s="10"/>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
-      <c r="AX17" s="34"/>
-    </row>
-    <row r="18" spans="1:50">
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="34"/>
+    </row>
+    <row r="18" spans="1:68">
       <c r="A18" s="21"/>
       <c r="B18" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="C18" s="40">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>2</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>1</v>
+      </c>
+      <c r="R18" s="9">
+        <v>2</v>
+      </c>
+      <c r="S18" s="9">
+        <v>4</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9">
+        <v>3</v>
+      </c>
+      <c r="V18" s="9">
+        <v>1</v>
+      </c>
+      <c r="W18" s="9">
+        <v>2</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -4374,9 +5845,9 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="40"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
@@ -4388,38 +5859,98 @@
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
+      <c r="AT18" s="10"/>
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
-      <c r="AX18" s="34"/>
-    </row>
-    <row r="19" spans="1:50">
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="34"/>
+    </row>
+    <row r="19" spans="1:68">
       <c r="A19" s="21"/>
       <c r="B19" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="C19" s="40">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>2</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1</v>
+      </c>
+      <c r="R19" s="9">
+        <v>2</v>
+      </c>
+      <c r="S19" s="9">
+        <v>3</v>
+      </c>
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+      <c r="U19" s="9">
+        <v>2</v>
+      </c>
+      <c r="V19" s="9">
+        <v>1</v>
+      </c>
+      <c r="W19" s="9">
+        <v>2</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -4428,9 +5959,9 @@
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="40"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
@@ -4442,38 +5973,98 @@
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
+      <c r="AT19" s="10"/>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
-      <c r="AX19" s="34"/>
-    </row>
-    <row r="20" spans="1:50" ht="15" thickBot="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="34"/>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="40">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>1</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1</v>
+      </c>
+      <c r="S20" s="9">
+        <v>1</v>
+      </c>
+      <c r="T20" s="9">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9">
+        <v>3</v>
+      </c>
+      <c r="V20" s="9">
+        <v>1</v>
+      </c>
+      <c r="W20" s="9">
+        <v>2</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -4482,9 +6073,9 @@
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="40"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
@@ -4496,42 +6087,98 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
+      <c r="AT20" s="10"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
-      <c r="AX20" s="34"/>
-    </row>
-    <row r="21" spans="1:50">
-      <c r="A21" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>228</v>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="34"/>
+    </row>
+    <row r="21" spans="1:68" ht="15" thickBot="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="C21" s="40">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <v>2</v>
+      </c>
+      <c r="S21" s="9">
+        <v>2</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="9">
+        <v>3</v>
+      </c>
+      <c r="V21" s="9">
+        <v>1</v>
+      </c>
+      <c r="W21" s="9">
+        <v>2</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -4540,9 +6187,9 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="40"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
@@ -4554,38 +6201,100 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
+      <c r="AT21" s="10"/>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
-      <c r="AX21" s="34"/>
-    </row>
-    <row r="22" spans="1:50">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="34"/>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="40">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>1</v>
+      </c>
+      <c r="U22" s="9">
+        <v>3</v>
+      </c>
+      <c r="V22" s="9">
+        <v>1</v>
+      </c>
+      <c r="W22" s="9">
+        <v>2</v>
+      </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -4594,9 +6303,9 @@
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="40"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
@@ -4608,38 +6317,98 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
+      <c r="AT22" s="10"/>
       <c r="AU22" s="9"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
-      <c r="AX22" s="34"/>
-    </row>
-    <row r="23" spans="1:50">
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="34"/>
+    </row>
+    <row r="23" spans="1:68">
       <c r="A23" s="21"/>
       <c r="B23" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="C23" s="40">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>2</v>
+      </c>
+      <c r="S23" s="9">
+        <v>2</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="9">
+        <v>1</v>
+      </c>
+      <c r="V23" s="9">
+        <v>1</v>
+      </c>
+      <c r="W23" s="9">
+        <v>1</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -4648,9 +6417,9 @@
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="40"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
@@ -4662,38 +6431,98 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
+      <c r="AT23" s="10"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
-      <c r="AX23" s="34"/>
-    </row>
-    <row r="24" spans="1:50">
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="34"/>
+    </row>
+    <row r="24" spans="1:68">
       <c r="A24" s="21"/>
       <c r="B24" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+        <v>229</v>
+      </c>
+      <c r="C24" s="40">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1</v>
+      </c>
+      <c r="R24" s="9">
+        <v>2</v>
+      </c>
+      <c r="S24" s="9">
+        <v>2</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1</v>
+      </c>
+      <c r="V24" s="9">
+        <v>1</v>
+      </c>
+      <c r="W24" s="9">
+        <v>1</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -4704,7 +6533,7 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
+      <c r="AH24" s="40"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
@@ -4716,38 +6545,98 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
+      <c r="AT24" s="10"/>
       <c r="AU24" s="9"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
-      <c r="AX24" s="34"/>
-    </row>
-    <row r="25" spans="1:50" ht="15" thickBot="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="34"/>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="21"/>
+      <c r="B25" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="40">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="S25" s="9">
+        <v>1</v>
+      </c>
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+      <c r="U25" s="9">
+        <v>3</v>
+      </c>
+      <c r="V25" s="9">
+        <v>1</v>
+      </c>
+      <c r="W25" s="9">
+        <v>2</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -4758,7 +6647,7 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="AH25" s="40"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
@@ -4774,38 +6663,94 @@
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
-      <c r="AX25" s="34"/>
-    </row>
-    <row r="26" spans="1:50">
-      <c r="A26" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>228</v>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
+      <c r="BH25" s="9"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="9"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="34"/>
+    </row>
+    <row r="26" spans="1:68" ht="15" thickBot="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="C26" s="40">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>4</v>
+      </c>
+      <c r="E26" s="9">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
+        <v>2</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9">
+        <v>2</v>
+      </c>
+      <c r="S26" s="9">
+        <v>2</v>
+      </c>
+      <c r="T26" s="9">
+        <v>2</v>
+      </c>
+      <c r="U26" s="9">
+        <v>1</v>
+      </c>
+      <c r="V26" s="9">
+        <v>2</v>
+      </c>
+      <c r="W26" s="9">
+        <v>3</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -4816,7 +6761,7 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
+      <c r="AH26" s="40"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
@@ -4832,34 +6777,96 @@
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
-      <c r="AX26" s="34"/>
-    </row>
-    <row r="27" spans="1:50">
-      <c r="A27" s="21"/>
-      <c r="B27" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="34"/>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="40">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1</v>
+      </c>
+      <c r="P27" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1</v>
+      </c>
+      <c r="S27" s="9">
+        <v>1</v>
+      </c>
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+      <c r="U27" s="9">
+        <v>3</v>
+      </c>
+      <c r="V27" s="9">
+        <v>1</v>
+      </c>
+      <c r="W27" s="9">
+        <v>2</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -4870,7 +6877,7 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
+      <c r="AH27" s="40"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
@@ -4886,34 +6893,94 @@
       <c r="AU27" s="9"/>
       <c r="AV27" s="9"/>
       <c r="AW27" s="9"/>
-      <c r="AX27" s="34"/>
-    </row>
-    <row r="28" spans="1:50">
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9"/>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="9"/>
+      <c r="BK27" s="9"/>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="9"/>
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="34"/>
+    </row>
+    <row r="28" spans="1:68">
       <c r="A28" s="21"/>
       <c r="B28" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="C28" s="40">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1</v>
+      </c>
+      <c r="P28" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>1</v>
+      </c>
+      <c r="R28" s="9">
+        <v>2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>2</v>
+      </c>
+      <c r="T28" s="9">
+        <v>1</v>
+      </c>
+      <c r="U28" s="9">
+        <v>1</v>
+      </c>
+      <c r="V28" s="9">
+        <v>1</v>
+      </c>
+      <c r="W28" s="9">
+        <v>1</v>
+      </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -4924,7 +6991,7 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
+      <c r="AH28" s="40"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
@@ -4940,34 +7007,94 @@
       <c r="AU28" s="9"/>
       <c r="AV28" s="9"/>
       <c r="AW28" s="9"/>
-      <c r="AX28" s="34"/>
-    </row>
-    <row r="29" spans="1:50" ht="15" thickBot="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9"/>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9"/>
+      <c r="BL28" s="9"/>
+      <c r="BM28" s="9"/>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="9"/>
+      <c r="BP28" s="34"/>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="40">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1</v>
+      </c>
+      <c r="P29" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>2</v>
+      </c>
+      <c r="T29" s="9">
+        <v>1</v>
+      </c>
+      <c r="U29" s="9">
+        <v>1</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1</v>
+      </c>
+      <c r="W29" s="9">
+        <v>1</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -4978,7 +7105,7 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
+      <c r="AH29" s="40"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
@@ -4994,38 +7121,94 @@
       <c r="AU29" s="9"/>
       <c r="AV29" s="9"/>
       <c r="AW29" s="9"/>
-      <c r="AX29" s="34"/>
-    </row>
-    <row r="30" spans="1:50">
-      <c r="A30" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>228</v>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="9"/>
+      <c r="BF29" s="9"/>
+      <c r="BG29" s="9"/>
+      <c r="BH29" s="9"/>
+      <c r="BI29" s="9"/>
+      <c r="BJ29" s="9"/>
+      <c r="BK29" s="9"/>
+      <c r="BL29" s="9"/>
+      <c r="BM29" s="9"/>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="34"/>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="C30" s="40">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>1</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1</v>
+      </c>
+      <c r="S30" s="9">
+        <v>1</v>
+      </c>
+      <c r="T30" s="9">
+        <v>1</v>
+      </c>
+      <c r="U30" s="9">
+        <v>3</v>
+      </c>
+      <c r="V30" s="9">
+        <v>1</v>
+      </c>
+      <c r="W30" s="9">
+        <v>2</v>
+      </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -5036,7 +7219,7 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
+      <c r="AH30" s="40"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
       <c r="AK30" s="9"/>
@@ -5052,34 +7235,94 @@
       <c r="AU30" s="9"/>
       <c r="AV30" s="9"/>
       <c r="AW30" s="9"/>
-      <c r="AX30" s="34"/>
-    </row>
-    <row r="31" spans="1:50">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="9"/>
+      <c r="BE30" s="9"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="9"/>
+      <c r="BH30" s="9"/>
+      <c r="BI30" s="9"/>
+      <c r="BJ30" s="9"/>
+      <c r="BK30" s="9"/>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="9"/>
+      <c r="BN30" s="9"/>
+      <c r="BO30" s="9"/>
+      <c r="BP30" s="34"/>
+    </row>
+    <row r="31" spans="1:68" ht="15" thickBot="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="40">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9">
+        <v>4</v>
+      </c>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9">
+        <v>2</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="9">
+        <v>2</v>
+      </c>
+      <c r="S31" s="9">
+        <v>2</v>
+      </c>
+      <c r="T31" s="9">
+        <v>2</v>
+      </c>
+      <c r="U31" s="9">
+        <v>1</v>
+      </c>
+      <c r="V31" s="9">
+        <v>2</v>
+      </c>
+      <c r="W31" s="9">
+        <v>3</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -5090,7 +7333,7 @@
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
+      <c r="AH31" s="40"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9"/>
@@ -5106,34 +7349,96 @@
       <c r="AU31" s="9"/>
       <c r="AV31" s="9"/>
       <c r="AW31" s="9"/>
-      <c r="AX31" s="34"/>
-    </row>
-    <row r="32" spans="1:50">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="9"/>
+      <c r="BP31" s="34"/>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="40">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9">
+        <v>1</v>
+      </c>
+      <c r="P32" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1</v>
+      </c>
+      <c r="S32" s="9">
+        <v>1</v>
+      </c>
+      <c r="T32" s="9">
+        <v>1</v>
+      </c>
+      <c r="U32" s="9">
+        <v>3</v>
+      </c>
+      <c r="V32" s="9">
+        <v>1</v>
+      </c>
+      <c r="W32" s="9">
+        <v>2</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -5144,7 +7449,7 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
+      <c r="AH32" s="40"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
@@ -5160,74 +7465,809 @@
       <c r="AU32" s="9"/>
       <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
-      <c r="AX32" s="34"/>
-    </row>
-    <row r="33" spans="1:50" ht="15" thickBot="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="35"/>
-      <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-      <c r="AO33" s="35"/>
-      <c r="AP33" s="35"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="35"/>
-      <c r="AS33" s="35"/>
-      <c r="AT33" s="35"/>
-      <c r="AU33" s="35"/>
-      <c r="AV33" s="35"/>
-      <c r="AW33" s="35"/>
-      <c r="AX33" s="36"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="9"/>
+      <c r="BE32" s="9"/>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="9"/>
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="9"/>
+      <c r="BK32" s="9"/>
+      <c r="BL32" s="9"/>
+      <c r="BM32" s="9"/>
+      <c r="BN32" s="9"/>
+      <c r="BO32" s="9"/>
+      <c r="BP32" s="34"/>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="21"/>
+      <c r="B33" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="40">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9">
+        <v>2</v>
+      </c>
+      <c r="S33" s="9">
+        <v>2</v>
+      </c>
+      <c r="T33" s="9">
+        <v>1</v>
+      </c>
+      <c r="U33" s="9">
+        <v>1</v>
+      </c>
+      <c r="V33" s="9">
+        <v>1</v>
+      </c>
+      <c r="W33" s="9">
+        <v>1</v>
+      </c>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9"/>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="9"/>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="34"/>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="21"/>
+      <c r="B34" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="40">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1</v>
+      </c>
+      <c r="S34" s="9">
+        <v>1</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1</v>
+      </c>
+      <c r="U34" s="9">
+        <v>3</v>
+      </c>
+      <c r="V34" s="9">
+        <v>1</v>
+      </c>
+      <c r="W34" s="9">
+        <v>2</v>
+      </c>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9"/>
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="9"/>
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="9"/>
+      <c r="BN34" s="9"/>
+      <c r="BO34" s="9"/>
+      <c r="BP34" s="34"/>
+    </row>
+    <row r="35" spans="1:68" ht="15" thickBot="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="41">
+        <v>3</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AT35" s="35"/>
+      <c r="AU35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="35"/>
+      <c r="AZ35" s="41"/>
+      <c r="BA35" s="35"/>
+      <c r="BB35" s="35"/>
+      <c r="BC35" s="35"/>
+      <c r="BD35" s="35"/>
+      <c r="BE35" s="35"/>
+      <c r="BF35" s="35"/>
+      <c r="BG35" s="35"/>
+      <c r="BH35" s="35"/>
+      <c r="BI35" s="35"/>
+      <c r="BJ35" s="35"/>
+      <c r="BK35" s="35"/>
+      <c r="BL35" s="35"/>
+      <c r="BM35" s="35"/>
+      <c r="BN35" s="35"/>
+      <c r="BO35" s="35"/>
+      <c r="BP35" s="36"/>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="37">
+        <v>5</v>
+      </c>
+      <c r="D36" s="38">
+        <v>1</v>
+      </c>
+      <c r="E36" s="38">
+        <v>4</v>
+      </c>
+      <c r="F36" s="38">
+        <v>1</v>
+      </c>
+      <c r="G36" s="38">
+        <v>2</v>
+      </c>
+      <c r="H36" s="38">
+        <v>1</v>
+      </c>
+      <c r="I36" s="38">
+        <v>2</v>
+      </c>
+      <c r="J36" s="38">
+        <v>1</v>
+      </c>
+      <c r="K36" s="38">
+        <v>2</v>
+      </c>
+      <c r="L36" s="38">
+        <v>1</v>
+      </c>
+      <c r="M36" s="38">
+        <v>2</v>
+      </c>
+      <c r="N36" s="38">
+        <v>2</v>
+      </c>
+      <c r="O36" s="38">
+        <v>3</v>
+      </c>
+      <c r="P36" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="38">
+        <v>2</v>
+      </c>
+      <c r="R36" s="38">
+        <v>3</v>
+      </c>
+      <c r="S36" s="38">
+        <v>5</v>
+      </c>
+      <c r="T36" s="38">
+        <v>2</v>
+      </c>
+      <c r="U36" s="38">
+        <v>1</v>
+      </c>
+      <c r="V36" s="38">
+        <v>1</v>
+      </c>
+      <c r="W36" s="38">
+        <v>2</v>
+      </c>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38"/>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="38"/>
+      <c r="BC36" s="38"/>
+      <c r="BD36" s="38"/>
+      <c r="BE36" s="38"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="38"/>
+      <c r="BH36" s="38"/>
+      <c r="BI36" s="38"/>
+      <c r="BJ36" s="38"/>
+      <c r="BK36" s="38"/>
+      <c r="BL36" s="38"/>
+      <c r="BM36" s="38"/>
+      <c r="BN36" s="38"/>
+      <c r="BO36" s="38"/>
+      <c r="BP36" s="39"/>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="43"/>
+      <c r="B37" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="40">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9">
+        <v>5</v>
+      </c>
+      <c r="E37" s="9">
+        <v>7</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9">
+        <v>2</v>
+      </c>
+      <c r="H37" s="9">
+        <v>3</v>
+      </c>
+      <c r="I37" s="9">
+        <v>3</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2</v>
+      </c>
+      <c r="K37" s="9">
+        <v>3</v>
+      </c>
+      <c r="L37" s="9">
+        <v>4</v>
+      </c>
+      <c r="M37" s="9">
+        <v>2</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9">
+        <v>2</v>
+      </c>
+      <c r="P37" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>2</v>
+      </c>
+      <c r="R37" s="10">
+        <v>3</v>
+      </c>
+      <c r="S37" s="9">
+        <v>5</v>
+      </c>
+      <c r="T37" s="9">
+        <v>2</v>
+      </c>
+      <c r="U37" s="9">
+        <v>1</v>
+      </c>
+      <c r="V37" s="9">
+        <v>2</v>
+      </c>
+      <c r="W37" s="9">
+        <v>3</v>
+      </c>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="9"/>
+      <c r="BH37" s="9"/>
+      <c r="BI37" s="9"/>
+      <c r="BJ37" s="9"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="9"/>
+      <c r="BN37" s="9"/>
+      <c r="BO37" s="9"/>
+      <c r="BP37" s="34"/>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="43"/>
+      <c r="B38" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="40">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5</v>
+      </c>
+      <c r="E38" s="9">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3</v>
+      </c>
+      <c r="I38" s="9">
+        <v>3</v>
+      </c>
+      <c r="J38" s="9">
+        <v>3</v>
+      </c>
+      <c r="K38" s="9">
+        <v>3</v>
+      </c>
+      <c r="L38" s="9">
+        <v>4</v>
+      </c>
+      <c r="M38" s="9">
+        <v>2</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>2</v>
+      </c>
+      <c r="P38" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>2</v>
+      </c>
+      <c r="R38" s="10">
+        <v>3</v>
+      </c>
+      <c r="S38" s="9">
+        <v>5</v>
+      </c>
+      <c r="T38" s="9">
+        <v>2</v>
+      </c>
+      <c r="U38" s="9">
+        <v>1</v>
+      </c>
+      <c r="V38" s="9">
+        <v>2</v>
+      </c>
+      <c r="W38" s="9">
+        <v>3</v>
+      </c>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="9"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="9"/>
+      <c r="BN38" s="9"/>
+      <c r="BO38" s="9"/>
+      <c r="BP38" s="34"/>
+    </row>
+    <row r="39" spans="1:68" ht="15" thickBot="1">
+      <c r="A39" s="44"/>
+      <c r="B39" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="41">
+        <v>5</v>
+      </c>
+      <c r="D39" s="35">
+        <v>1</v>
+      </c>
+      <c r="E39" s="35">
+        <v>6</v>
+      </c>
+      <c r="F39" s="35">
+        <v>2</v>
+      </c>
+      <c r="G39" s="35">
+        <v>2</v>
+      </c>
+      <c r="H39" s="35">
+        <v>1</v>
+      </c>
+      <c r="I39" s="35">
+        <v>3</v>
+      </c>
+      <c r="J39" s="35">
+        <v>1</v>
+      </c>
+      <c r="K39" s="35">
+        <v>2</v>
+      </c>
+      <c r="L39" s="35">
+        <v>1</v>
+      </c>
+      <c r="M39" s="35">
+        <v>3</v>
+      </c>
+      <c r="N39" s="35">
+        <v>1</v>
+      </c>
+      <c r="O39" s="35">
+        <v>2</v>
+      </c>
+      <c r="P39" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="35">
+        <v>2</v>
+      </c>
+      <c r="R39" s="35">
+        <v>3</v>
+      </c>
+      <c r="S39" s="35">
+        <v>5</v>
+      </c>
+      <c r="T39" s="35">
+        <v>2</v>
+      </c>
+      <c r="U39" s="35">
+        <v>1</v>
+      </c>
+      <c r="V39" s="35">
+        <v>2</v>
+      </c>
+      <c r="W39" s="35">
+        <v>3</v>
+      </c>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="35"/>
+      <c r="AT39" s="35"/>
+      <c r="AU39" s="35"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
+      <c r="AZ39" s="41"/>
+      <c r="BA39" s="35"/>
+      <c r="BB39" s="35"/>
+      <c r="BC39" s="35"/>
+      <c r="BD39" s="35"/>
+      <c r="BE39" s="35"/>
+      <c r="BF39" s="35"/>
+      <c r="BG39" s="35"/>
+      <c r="BH39" s="35"/>
+      <c r="BI39" s="35"/>
+      <c r="BJ39" s="35"/>
+      <c r="BK39" s="35"/>
+      <c r="BL39" s="35"/>
+      <c r="BM39" s="35"/>
+      <c r="BN39" s="35"/>
+      <c r="BO39" s="35"/>
+      <c r="BP39" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A30:A33"/>
+  <mergeCells count="11">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="T1:AH1"/>
-    <mergeCell ref="AI1:AX1"/>
+    <mergeCell ref="C1:AG1"/>
+    <mergeCell ref="AZ1:BP1"/>
+    <mergeCell ref="AH1:AY1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/EEOB563_Final_Project_Character_Scoring.xlsx
+++ b/EEOB563_Final_Project_Character_Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="0" windowWidth="8580" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20960" yWindow="0" windowWidth="8580" windowHeight="17480" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Character Trait Descriptions" sheetId="4" r:id="rId1"/>
@@ -3710,10 +3710,10 @@
   <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4121,8 +4121,12 @@
       <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
+      <c r="X3" s="38">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>2</v>
+      </c>
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
       <c r="AB3" s="38"/>
@@ -4235,8 +4239,12 @@
       <c r="W4" s="9">
         <v>1</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
+      <c r="X4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1</v>
+      </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -4349,8 +4357,12 @@
       <c r="W5" s="9">
         <v>1</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>3</v>
+      </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
@@ -4463,8 +4475,12 @@
       <c r="W6" s="9">
         <v>3</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="X6" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>3</v>
+      </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
@@ -4579,8 +4595,12 @@
       <c r="W7" s="9">
         <v>2</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="X7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>2</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -4693,8 +4713,12 @@
       <c r="W8" s="9">
         <v>1</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="X8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>1</v>
+      </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
@@ -4807,8 +4831,12 @@
       <c r="W9" s="9">
         <v>1</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="X9" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>1</v>
+      </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -4921,8 +4949,12 @@
       <c r="W10" s="9">
         <v>2</v>
       </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>3</v>
+      </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -5035,8 +5067,12 @@
       <c r="W11" s="9">
         <v>1</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="X11" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>3</v>
+      </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -5151,7 +5187,9 @@
       <c r="W12" s="9">
         <v>2</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="9">
+        <v>2</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -5265,7 +5303,9 @@
       <c r="W13" s="9">
         <v>1</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="9">
+        <v>3</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -5379,7 +5419,9 @@
       <c r="W14" s="9">
         <v>2</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="9">
+        <v>2</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -5493,7 +5535,9 @@
       <c r="W15" s="9">
         <v>2</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="9">
+        <v>2</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -5607,7 +5651,9 @@
       <c r="W16" s="9">
         <v>2</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="9">
+        <v>1</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -5723,7 +5769,9 @@
       <c r="W17" s="9">
         <v>2</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="9">
+        <v>2</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -5837,7 +5885,9 @@
       <c r="W18" s="9">
         <v>2</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="9">
+        <v>3</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -5951,7 +6001,9 @@
       <c r="W19" s="9">
         <v>2</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="9">
+        <v>3</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -6065,7 +6117,9 @@
       <c r="W20" s="9">
         <v>2</v>
       </c>
-      <c r="X20" s="9"/>
+      <c r="X20" s="9">
+        <v>1</v>
+      </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -6179,7 +6233,9 @@
       <c r="W21" s="9">
         <v>2</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="9">
+        <v>1</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -6295,7 +6351,9 @@
       <c r="W22" s="9">
         <v>2</v>
       </c>
-      <c r="X22" s="9"/>
+      <c r="X22" s="9">
+        <v>2</v>
+      </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -6409,7 +6467,9 @@
       <c r="W23" s="9">
         <v>1</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="9">
+        <v>3</v>
+      </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -6523,7 +6583,9 @@
       <c r="W24" s="9">
         <v>1</v>
       </c>
-      <c r="X24" s="9"/>
+      <c r="X24" s="9">
+        <v>2</v>
+      </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -6637,7 +6699,9 @@
       <c r="W25" s="9">
         <v>2</v>
       </c>
-      <c r="X25" s="9"/>
+      <c r="X25" s="9">
+        <v>1</v>
+      </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -6751,7 +6815,9 @@
       <c r="W26" s="9">
         <v>3</v>
       </c>
-      <c r="X26" s="9"/>
+      <c r="X26" s="9">
+        <v>4</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -6867,7 +6933,9 @@
       <c r="W27" s="9">
         <v>2</v>
       </c>
-      <c r="X27" s="9"/>
+      <c r="X27" s="9">
+        <v>2</v>
+      </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -6981,7 +7049,9 @@
       <c r="W28" s="9">
         <v>1</v>
       </c>
-      <c r="X28" s="9"/>
+      <c r="X28" s="9">
+        <v>3</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -7095,7 +7165,9 @@
       <c r="W29" s="9">
         <v>1</v>
       </c>
-      <c r="X29" s="9"/>
+      <c r="X29" s="9">
+        <v>2</v>
+      </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
@@ -7209,7 +7281,9 @@
       <c r="W30" s="9">
         <v>2</v>
       </c>
-      <c r="X30" s="9"/>
+      <c r="X30" s="9">
+        <v>1</v>
+      </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -7323,7 +7397,9 @@
       <c r="W31" s="9">
         <v>3</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="9">
+        <v>4</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -7439,7 +7515,9 @@
       <c r="W32" s="9">
         <v>2</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="9">
+        <v>2</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -7553,7 +7631,9 @@
       <c r="W33" s="9">
         <v>1</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="9">
+        <v>3</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -7667,7 +7747,9 @@
       <c r="W34" s="9">
         <v>2</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="9">
+        <v>1</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -7867,7 +7949,9 @@
       <c r="W36" s="38">
         <v>2</v>
       </c>
-      <c r="X36" s="38"/>
+      <c r="X36" s="38">
+        <v>2</v>
+      </c>
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
       <c r="AA36" s="38"/>
@@ -7981,7 +8065,9 @@
       <c r="W37" s="9">
         <v>3</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="9">
+        <v>4</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -8095,7 +8181,9 @@
       <c r="W38" s="9">
         <v>3</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="9">
+        <v>4</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -8209,7 +8297,9 @@
       <c r="W39" s="35">
         <v>3</v>
       </c>
-      <c r="X39" s="35"/>
+      <c r="X39" s="35">
+        <v>4</v>
+      </c>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
       <c r="AA39" s="35"/>

--- a/EEOB563_Final_Project_Character_Scoring.xlsx
+++ b/EEOB563_Final_Project_Character_Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="0" windowWidth="8580" windowHeight="17480" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="1360" yWindow="0" windowWidth="26300" windowHeight="17480" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Character Trait Descriptions" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="353">
   <si>
     <t>Physiological Traits</t>
   </si>
@@ -341,9 +341,6 @@
     <t>3 = advanced</t>
   </si>
   <si>
-    <t>4 = biological</t>
-  </si>
-  <si>
     <t>1 = minimalist</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
     <t>5 = very high</t>
   </si>
   <si>
+    <t>1 = minimal</t>
+  </si>
+  <si>
     <t>1 = minimally motivated</t>
   </si>
   <si>
@@ -599,21 +599,6 @@
     <t>1 = rarely entangled</t>
   </si>
   <si>
-    <t>3 = martial, tech., supernat.</t>
-  </si>
-  <si>
-    <t>1 = martial, technological</t>
-  </si>
-  <si>
-    <t>2 = martial, supernatural</t>
-  </si>
-  <si>
-    <t>1 = divinely created</t>
-  </si>
-  <si>
-    <t>2 = evolved naturally</t>
-  </si>
-  <si>
     <t>Trait Descriptions</t>
   </si>
   <si>
@@ -980,9 +965,6 @@
     <t>4 = evil</t>
   </si>
   <si>
-    <t>3 = created or warped by tech or magic</t>
-  </si>
-  <si>
     <t>1 = primitively evolved or created</t>
   </si>
   <si>
@@ -1029,6 +1011,75 @@
   </si>
   <si>
     <t>4 = often associated with</t>
+  </si>
+  <si>
+    <t>1 = martial (technological)</t>
+  </si>
+  <si>
+    <t>2 = martial (supernatural)</t>
+  </si>
+  <si>
+    <t>3 = martial (technological &amp; supernatural)</t>
+  </si>
+  <si>
+    <t>4 = martial (biological)</t>
+  </si>
+  <si>
+    <t>1 = divinely created or manipulated</t>
+  </si>
+  <si>
+    <t>2 = product of evolution</t>
+  </si>
+  <si>
+    <t>3 = created by another race via tech or magic</t>
+  </si>
+  <si>
+    <t>4 = unknown</t>
+  </si>
+  <si>
+    <t>1 = seek harmony with their environment</t>
+  </si>
+  <si>
+    <t>2 = seek to control their environment</t>
+  </si>
+  <si>
+    <t>3 = seek to consume their environment</t>
+  </si>
+  <si>
+    <t>1 = seek to defaet and hault enemies</t>
+  </si>
+  <si>
+    <t>2 = seek to defeat and exterminate enemies</t>
+  </si>
+  <si>
+    <t>3 = seek to defeat and subjugate enemies</t>
+  </si>
+  <si>
+    <t>4 = seek to defeat and assimilate enemies</t>
+  </si>
+  <si>
+    <t>4 = highly advanced</t>
+  </si>
+  <si>
+    <t>5 = hyper advanced</t>
+  </si>
+  <si>
+    <t>6 = biological</t>
+  </si>
+  <si>
+    <t>3 = overt</t>
+  </si>
+  <si>
+    <t>4 = excessive</t>
+  </si>
+  <si>
+    <t>1 = form loose familial bonds</t>
+  </si>
+  <si>
+    <t>2 = form strong familial bonds</t>
+  </si>
+  <si>
+    <t>3 = form no familial bonds</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2061,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2043,62 +2094,62 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2113,7 +2164,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2123,7 +2174,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2221,7 +2272,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2239,17 +2290,17 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2259,12 +2310,12 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -2314,7 +2365,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -2335,19 +2386,19 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B61" s="5"/>
     </row>
@@ -2361,7 +2412,7 @@
       </c>
       <c r="B64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2389,7 +2440,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2460,7 +2511,7 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2478,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2553,24 +2604,24 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -2592,7 +2643,7 @@
         <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -2606,175 +2657,175 @@
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P11" t="s">
+        <v>275</v>
+      </c>
+      <c r="S11" t="s">
+        <v>279</v>
+      </c>
+      <c r="V11" t="s">
         <v>280</v>
-      </c>
-      <c r="S11" t="s">
-        <v>284</v>
-      </c>
-      <c r="V11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J16" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" t="s">
         <v>233</v>
       </c>
-      <c r="D18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>238</v>
-      </c>
-      <c r="M18" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2808,18 +2859,18 @@
         <v>58</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2830,21 +2881,21 @@
         <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2875,7 +2926,7 @@
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2985,21 +3036,21 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H37" s="49"/>
       <c r="I37" s="49"/>
       <c r="J37" s="49" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s">
         <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3089,10 +3140,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="G43" t="s">
         <v>95</v>
@@ -3106,24 +3157,24 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="M44" t="s">
         <v>308</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G44" t="s">
-        <v>311</v>
-      </c>
-      <c r="J44" t="s">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>98</v>
@@ -3143,50 +3194,50 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" t="s">
         <v>111</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>112</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
         <v>113</v>
-      </c>
-      <c r="M46" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="G47" t="s">
         <v>116</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>117</v>
-      </c>
-      <c r="J47" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="G48" t="s">
         <v>120</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
+        <v>310</v>
+      </c>
+      <c r="M48" t="s">
         <v>121</v>
       </c>
-      <c r="J48" t="s">
-        <v>315</v>
-      </c>
-      <c r="M48" t="s">
-        <v>122</v>
-      </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3194,13 +3245,13 @@
         <v>23</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" t="s">
         <v>123</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>124</v>
-      </c>
-      <c r="J49" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3208,16 +3259,16 @@
         <v>24</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" t="s">
         <v>126</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>127</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
         <v>128</v>
-      </c>
-      <c r="M50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3225,16 +3276,16 @@
         <v>25</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
         <v>130</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>131</v>
       </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
         <v>132</v>
-      </c>
-      <c r="M51" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3242,19 +3293,19 @@
         <v>44</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
         <v>134</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>135</v>
       </c>
-      <c r="J52" t="s">
+      <c r="M52" t="s">
         <v>136</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>137</v>
-      </c>
-      <c r="P52" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3265,13 +3316,13 @@
         <v>59</v>
       </c>
       <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" t="s">
         <v>139</v>
       </c>
-      <c r="J53" t="s">
+      <c r="M53" t="s">
         <v>140</v>
-      </c>
-      <c r="M53" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3279,30 +3330,30 @@
         <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" t="s">
         <v>142</v>
       </c>
-      <c r="G54" t="s">
+      <c r="J54" t="s">
         <v>143</v>
-      </c>
-      <c r="J54" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="G55" t="s">
         <v>146</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>147</v>
       </c>
-      <c r="J55" t="s">
+      <c r="M55" t="s">
         <v>148</v>
-      </c>
-      <c r="M55" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3313,13 +3364,13 @@
         <v>59</v>
       </c>
       <c r="G56" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" t="s">
         <v>151</v>
       </c>
-      <c r="J56" t="s">
+      <c r="M56" t="s">
         <v>152</v>
-      </c>
-      <c r="M56" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3330,90 +3381,124 @@
         <v>59</v>
       </c>
       <c r="G57" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" t="s">
         <v>154</v>
       </c>
-      <c r="J57" t="s">
+      <c r="M57" t="s">
         <v>155</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="s">
         <v>156</v>
-      </c>
-      <c r="P57" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B59" s="5"/>
       <c r="D59" s="51" t="s">
         <v>167</v>
       </c>
       <c r="G59" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J59" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M59" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B60" s="5"/>
       <c r="D60" s="51" t="s">
         <v>167</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J60" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M60" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P60" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B61" s="5"/>
-      <c r="D61" s="51"/>
+      <c r="D61" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B62" s="5"/>
       <c r="D62" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G62" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J62" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M62" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" thickBot="1">
@@ -3468,13 +3553,13 @@
         <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P66" t="s">
         <v>189</v>
@@ -3496,22 +3581,22 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" t="s">
+        <v>210</v>
+      </c>
+      <c r="G68" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" t="s">
+        <v>212</v>
+      </c>
+      <c r="M68" t="s">
+        <v>213</v>
+      </c>
+      <c r="P68" t="s">
         <v>214</v>
-      </c>
-      <c r="D68" t="s">
-        <v>215</v>
-      </c>
-      <c r="G68" t="s">
-        <v>216</v>
-      </c>
-      <c r="J68" t="s">
-        <v>217</v>
-      </c>
-      <c r="M68" t="s">
-        <v>218</v>
-      </c>
-      <c r="P68" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -3573,16 +3658,16 @@
         <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G72" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J72" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M72" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -3607,19 +3692,19 @@
         <v>32</v>
       </c>
       <c r="D74" t="s">
+        <v>318</v>
+      </c>
+      <c r="G74" t="s">
+        <v>323</v>
+      </c>
+      <c r="J74" t="s">
         <v>324</v>
       </c>
-      <c r="G74" t="s">
-        <v>329</v>
-      </c>
-      <c r="J74" t="s">
-        <v>330</v>
-      </c>
       <c r="M74" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -3632,53 +3717,75 @@
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
       <c r="G75" s="49" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H75" s="49"/>
       <c r="I75" s="49"/>
       <c r="J75" s="49" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K75" s="49"/>
       <c r="L75" s="49"/>
       <c r="M75" s="49" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D76" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" t="s">
-        <v>194</v>
-      </c>
-      <c r="J76" t="s">
-        <v>192</v>
-      </c>
-      <c r="M76" t="s">
-        <v>106</v>
+      <c r="D76" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D77" t="s">
-        <v>195</v>
-      </c>
-      <c r="G77" t="s">
-        <v>196</v>
-      </c>
-      <c r="J77" s="49" t="s">
-        <v>319</v>
+      <c r="D77" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M77" s="49" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+      <c r="D78" t="s">
+        <v>338</v>
+      </c>
+      <c r="G78" t="s">
+        <v>339</v>
+      </c>
+      <c r="J78" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:22" s="49" customFormat="1">
@@ -3701,22 +3808,30 @@
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
+      <c r="D80" s="49" t="s">
+        <v>341</v>
+      </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
+      <c r="G80" s="49" t="s">
+        <v>342</v>
+      </c>
       <c r="H80" s="49"/>
       <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
+      <c r="J80" s="49" t="s">
+        <v>343</v>
+      </c>
       <c r="K80" s="49"/>
       <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="M80" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -3729,42 +3844,52 @@
       <c r="J81" t="s">
         <v>105</v>
       </c>
-      <c r="M81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="M81" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G82" t="s">
         <v>107</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>108</v>
       </c>
-      <c r="J82" t="s">
+      <c r="M82" t="s">
         <v>109</v>
       </c>
-      <c r="M82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J83" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M83" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3911,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM43" sqref="BM43"/>
+      <selection pane="bottomRight" activeCell="BU42" sqref="BU42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3941,40 +4066,40 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>245</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>14</v>
@@ -3983,13 +4108,13 @@
         <v>15</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="W2" s="13" t="s">
         <v>18</v>
@@ -4025,22 +4150,22 @@
         <v>13</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AI2" s="50" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AK2" s="19" t="s">
         <v>21</v>
       </c>
       <c r="AL2" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AN2" s="19" t="s">
         <v>23</v>
@@ -4061,7 +4186,7 @@
         <v>28</v>
       </c>
       <c r="AT2" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AU2" s="19" t="s">
         <v>36</v>
@@ -4070,19 +4195,19 @@
         <v>33</v>
       </c>
       <c r="AW2" s="27" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AX2" s="48" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AY2" s="48" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AZ2" s="48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BA2" s="48" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="BB2" s="18" t="s">
         <v>39</v>
@@ -4091,7 +4216,7 @@
         <v>34</v>
       </c>
       <c r="BD2" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="BE2" s="19" t="s">
         <v>165</v>
@@ -4121,13 +4246,13 @@
         <v>40</v>
       </c>
       <c r="BN2" s="19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="BO2" s="19" t="s">
         <v>41</v>
       </c>
       <c r="BP2" s="19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="BQ2" s="19" t="s">
         <v>102</v>
@@ -4136,15 +4261,15 @@
         <v>26</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:71">
       <c r="A3" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C3" s="37">
         <v>3</v>
@@ -4284,14 +4409,18 @@
       <c r="AV3" s="38">
         <v>4</v>
       </c>
-      <c r="AW3" s="9"/>
+      <c r="AW3" s="9">
+        <v>2</v>
+      </c>
       <c r="AX3" s="9">
         <v>2</v>
       </c>
       <c r="AY3" s="9">
         <v>1</v>
       </c>
-      <c r="AZ3" s="9"/>
+      <c r="AZ3" s="9">
+        <v>3</v>
+      </c>
       <c r="BA3" s="38">
         <v>2</v>
       </c>
@@ -4325,21 +4454,35 @@
       <c r="BK3" s="38">
         <v>3</v>
       </c>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
+      <c r="BL3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="38">
+        <v>2</v>
+      </c>
       <c r="BO3" s="38">
         <v>2</v>
       </c>
-      <c r="BP3" s="38"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="38"/>
-      <c r="BS3" s="39"/>
+      <c r="BP3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="38">
+        <v>2</v>
+      </c>
+      <c r="BR3" s="38">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:71">
       <c r="A4" s="21"/>
       <c r="B4" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C4" s="40">
         <v>4</v>
@@ -4479,14 +4622,18 @@
       <c r="AV4" s="9">
         <v>5</v>
       </c>
-      <c r="AW4" s="9"/>
+      <c r="AW4" s="9">
+        <v>1</v>
+      </c>
       <c r="AX4" s="9">
         <v>1</v>
       </c>
       <c r="AY4" s="9">
         <v>1</v>
       </c>
-      <c r="AZ4" s="9"/>
+      <c r="AZ4" s="9">
+        <v>2</v>
+      </c>
       <c r="BA4" s="9">
         <v>1</v>
       </c>
@@ -4520,21 +4667,35 @@
       <c r="BK4" s="9">
         <v>4</v>
       </c>
-      <c r="BL4" s="9"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
+      <c r="BL4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="9">
+        <v>1</v>
+      </c>
       <c r="BO4" s="9">
         <v>1</v>
       </c>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="34"/>
+      <c r="BP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:71">
       <c r="A5" s="21"/>
       <c r="B5" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C5" s="40">
         <v>1</v>
@@ -4674,14 +4835,18 @@
       <c r="AV5" s="9">
         <v>4</v>
       </c>
-      <c r="AW5" s="9"/>
+      <c r="AW5" s="9">
+        <v>2</v>
+      </c>
       <c r="AX5" s="9">
         <v>2</v>
       </c>
       <c r="AY5" s="9">
         <v>1</v>
       </c>
-      <c r="AZ5" s="9"/>
+      <c r="AZ5" s="9">
+        <v>3</v>
+      </c>
       <c r="BA5" s="9">
         <v>2</v>
       </c>
@@ -4715,21 +4880,35 @@
       <c r="BK5" s="9">
         <v>1</v>
       </c>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
+      <c r="BL5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>1</v>
+      </c>
       <c r="BO5" s="9">
         <v>3</v>
       </c>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="34"/>
+      <c r="BP5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS5" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:71" ht="15" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" s="40">
         <v>1</v>
@@ -4869,14 +5048,18 @@
       <c r="AV6" s="9">
         <v>1</v>
       </c>
-      <c r="AW6" s="9"/>
+      <c r="AW6" s="9">
+        <v>1</v>
+      </c>
       <c r="AX6" s="9">
         <v>1</v>
       </c>
       <c r="AY6" s="9">
         <v>3</v>
       </c>
-      <c r="AZ6" s="9"/>
+      <c r="AZ6" s="9">
+        <v>1</v>
+      </c>
       <c r="BA6" s="9">
         <v>4</v>
       </c>
@@ -4911,24 +5094,36 @@
         <v>1</v>
       </c>
       <c r="BL6" s="9">
-        <v>4</v>
-      </c>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="BM6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>2</v>
+      </c>
       <c r="BO6" s="9">
         <v>1</v>
       </c>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="34"/>
+      <c r="BP6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:71" ht="14" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C7" s="40">
         <v>3</v>
@@ -5068,14 +5263,18 @@
       <c r="AV7" s="9">
         <v>4</v>
       </c>
-      <c r="AW7" s="9"/>
+      <c r="AW7" s="9">
+        <v>2</v>
+      </c>
       <c r="AX7" s="9">
         <v>2</v>
       </c>
       <c r="AY7" s="9">
         <v>2</v>
       </c>
-      <c r="AZ7" s="9"/>
+      <c r="AZ7" s="9">
+        <v>3</v>
+      </c>
       <c r="BA7" s="9">
         <v>2</v>
       </c>
@@ -5109,21 +5308,35 @@
       <c r="BK7" s="9">
         <v>2</v>
       </c>
-      <c r="BL7" s="9"/>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
+      <c r="BL7" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>2</v>
+      </c>
       <c r="BO7" s="9">
         <v>2</v>
       </c>
-      <c r="BP7" s="9"/>
-      <c r="BQ7" s="9"/>
-      <c r="BR7" s="9"/>
-      <c r="BS7" s="34"/>
+      <c r="BP7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:71">
       <c r="A8" s="21"/>
       <c r="B8" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C8" s="40">
         <v>2</v>
@@ -5263,14 +5476,18 @@
       <c r="AV8" s="9">
         <v>4</v>
       </c>
-      <c r="AW8" s="9"/>
+      <c r="AW8" s="9">
+        <v>1</v>
+      </c>
       <c r="AX8" s="9">
         <v>2</v>
       </c>
       <c r="AY8" s="9">
         <v>1</v>
       </c>
-      <c r="AZ8" s="9"/>
+      <c r="AZ8" s="9">
+        <v>3</v>
+      </c>
       <c r="BA8" s="9">
         <v>3</v>
       </c>
@@ -5304,21 +5521,35 @@
       <c r="BK8" s="9">
         <v>2</v>
       </c>
-      <c r="BL8" s="9"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
+      <c r="BL8" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="9">
+        <v>2</v>
+      </c>
       <c r="BO8" s="9">
         <v>2</v>
       </c>
-      <c r="BP8" s="9"/>
-      <c r="BQ8" s="9"/>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="34"/>
+      <c r="BP8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:71">
       <c r="A9" s="21"/>
       <c r="B9" s="24" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C9" s="40">
         <v>2</v>
@@ -5458,14 +5689,18 @@
       <c r="AV9" s="9">
         <v>4</v>
       </c>
-      <c r="AW9" s="9"/>
+      <c r="AW9" s="9">
+        <v>1</v>
+      </c>
       <c r="AX9" s="9">
         <v>3</v>
       </c>
       <c r="AY9" s="9">
         <v>3</v>
       </c>
-      <c r="AZ9" s="9"/>
+      <c r="AZ9" s="9">
+        <v>2</v>
+      </c>
       <c r="BA9" s="9">
         <v>1</v>
       </c>
@@ -5499,21 +5734,35 @@
       <c r="BK9" s="9">
         <v>2</v>
       </c>
-      <c r="BL9" s="9"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
+      <c r="BL9" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="9">
+        <v>2</v>
+      </c>
       <c r="BO9" s="9">
         <v>3</v>
       </c>
-      <c r="BP9" s="9"/>
-      <c r="BQ9" s="9"/>
-      <c r="BR9" s="9"/>
-      <c r="BS9" s="34"/>
+      <c r="BP9" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ9" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR9" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS9" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:71">
       <c r="A10" s="21"/>
       <c r="B10" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="40">
         <v>1</v>
@@ -5653,14 +5902,18 @@
       <c r="AV10" s="9">
         <v>3</v>
       </c>
-      <c r="AW10" s="9"/>
+      <c r="AW10" s="9">
+        <v>2</v>
+      </c>
       <c r="AX10" s="9">
         <v>2</v>
       </c>
       <c r="AY10" s="9">
         <v>1</v>
       </c>
-      <c r="AZ10" s="9"/>
+      <c r="AZ10" s="9">
+        <v>3</v>
+      </c>
       <c r="BA10" s="9">
         <v>2</v>
       </c>
@@ -5694,21 +5947,35 @@
       <c r="BK10" s="9">
         <v>2</v>
       </c>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="9"/>
+      <c r="BL10" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="9">
+        <v>2</v>
+      </c>
       <c r="BO10" s="9">
         <v>3</v>
       </c>
-      <c r="BP10" s="9"/>
-      <c r="BQ10" s="9"/>
-      <c r="BR10" s="9"/>
-      <c r="BS10" s="34"/>
+      <c r="BP10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR10" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS10" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:71" ht="15" thickBot="1">
       <c r="A11" s="22"/>
       <c r="B11" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C11" s="40">
         <v>3</v>
@@ -5848,14 +6115,18 @@
       <c r="AV11" s="9">
         <v>1</v>
       </c>
-      <c r="AW11" s="9"/>
+      <c r="AW11" s="9">
+        <v>1</v>
+      </c>
       <c r="AX11" s="9">
         <v>1</v>
       </c>
       <c r="AY11" s="9">
         <v>3</v>
       </c>
-      <c r="AZ11" s="9"/>
+      <c r="AZ11" s="9">
+        <v>1</v>
+      </c>
       <c r="BA11" s="9">
         <v>1</v>
       </c>
@@ -5890,24 +6161,36 @@
         <v>2</v>
       </c>
       <c r="BL11" s="9">
-        <v>4</v>
-      </c>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="BM11" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN11" s="9">
+        <v>2</v>
+      </c>
       <c r="BO11" s="9">
         <v>1</v>
       </c>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="9"/>
-      <c r="BR11" s="9"/>
-      <c r="BS11" s="34"/>
+      <c r="BP11" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:71">
       <c r="A12" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C12" s="40">
         <v>3</v>
@@ -6047,14 +6330,18 @@
       <c r="AV12" s="9">
         <v>4</v>
       </c>
-      <c r="AW12" s="9"/>
+      <c r="AW12" s="9">
+        <v>2</v>
+      </c>
       <c r="AX12" s="9">
         <v>2</v>
       </c>
       <c r="AY12" s="9">
         <v>2</v>
       </c>
-      <c r="AZ12" s="9"/>
+      <c r="AZ12" s="9">
+        <v>2</v>
+      </c>
       <c r="BA12" s="9">
         <v>2</v>
       </c>
@@ -6088,21 +6375,35 @@
       <c r="BK12" s="9">
         <v>2</v>
       </c>
-      <c r="BL12" s="9"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
+      <c r="BL12" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM12" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN12" s="9">
+        <v>2</v>
+      </c>
       <c r="BO12" s="9">
         <v>2</v>
       </c>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="9"/>
-      <c r="BS12" s="34"/>
+      <c r="BP12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR12" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS12" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:71">
       <c r="A13" s="21"/>
       <c r="B13" s="24" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C13" s="40">
         <v>4</v>
@@ -6242,14 +6543,18 @@
       <c r="AV13" s="9">
         <v>4</v>
       </c>
-      <c r="AW13" s="9"/>
+      <c r="AW13" s="9">
+        <v>1</v>
+      </c>
       <c r="AX13" s="9">
         <v>2</v>
       </c>
       <c r="AY13" s="9">
         <v>1</v>
       </c>
-      <c r="AZ13" s="9"/>
+      <c r="AZ13" s="9">
+        <v>3</v>
+      </c>
       <c r="BA13" s="9">
         <v>2</v>
       </c>
@@ -6283,21 +6588,35 @@
       <c r="BK13" s="9">
         <v>2</v>
       </c>
-      <c r="BL13" s="9"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="9"/>
+      <c r="BL13" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM13" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN13" s="9">
+        <v>2</v>
+      </c>
       <c r="BO13" s="9">
         <v>2</v>
       </c>
-      <c r="BP13" s="9"/>
-      <c r="BQ13" s="9"/>
-      <c r="BR13" s="9"/>
-      <c r="BS13" s="34"/>
+      <c r="BP13" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR13" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:71">
       <c r="A14" s="21"/>
       <c r="B14" s="24" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C14" s="40">
         <v>3</v>
@@ -6437,14 +6756,18 @@
       <c r="AV14" s="9">
         <v>4</v>
       </c>
-      <c r="AW14" s="9"/>
+      <c r="AW14" s="9">
+        <v>1</v>
+      </c>
       <c r="AX14" s="9">
         <v>2</v>
       </c>
       <c r="AY14" s="9">
         <v>2</v>
       </c>
-      <c r="AZ14" s="9"/>
+      <c r="AZ14" s="9">
+        <v>2</v>
+      </c>
       <c r="BA14" s="9">
         <v>1</v>
       </c>
@@ -6478,21 +6801,35 @@
       <c r="BK14" s="9">
         <v>2</v>
       </c>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9"/>
+      <c r="BL14" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM14" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN14" s="9">
+        <v>2</v>
+      </c>
       <c r="BO14" s="9">
         <v>2</v>
       </c>
-      <c r="BP14" s="9"/>
-      <c r="BQ14" s="9"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="34"/>
+      <c r="BP14" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR14" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:71">
       <c r="A15" s="21"/>
       <c r="B15" s="24" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C15" s="40">
         <v>3</v>
@@ -6632,14 +6969,18 @@
       <c r="AV15" s="9">
         <v>5</v>
       </c>
-      <c r="AW15" s="9"/>
+      <c r="AW15" s="9">
+        <v>2</v>
+      </c>
       <c r="AX15" s="9">
         <v>1</v>
       </c>
       <c r="AY15" s="9">
         <v>1</v>
       </c>
-      <c r="AZ15" s="9"/>
+      <c r="AZ15" s="9">
+        <v>4</v>
+      </c>
       <c r="BA15" s="9">
         <v>1</v>
       </c>
@@ -6673,21 +7014,35 @@
       <c r="BK15" s="9">
         <v>1</v>
       </c>
-      <c r="BL15" s="9"/>
-      <c r="BM15" s="9"/>
-      <c r="BN15" s="9"/>
+      <c r="BL15" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM15" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN15" s="9">
+        <v>2</v>
+      </c>
       <c r="BO15" s="9">
         <v>1</v>
       </c>
-      <c r="BP15" s="9"/>
-      <c r="BQ15" s="9"/>
-      <c r="BR15" s="9"/>
-      <c r="BS15" s="34"/>
+      <c r="BP15" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="9">
+        <v>4</v>
+      </c>
+      <c r="BR15" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS15" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:71" ht="15" thickBot="1">
       <c r="A16" s="22"/>
       <c r="B16" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C16" s="40">
         <v>4</v>
@@ -6827,14 +7182,18 @@
       <c r="AV16" s="9">
         <v>3</v>
       </c>
-      <c r="AW16" s="9"/>
+      <c r="AW16" s="9">
+        <v>2</v>
+      </c>
       <c r="AX16" s="9">
         <v>2</v>
       </c>
       <c r="AY16" s="9">
         <v>2</v>
       </c>
-      <c r="AZ16" s="9"/>
+      <c r="AZ16" s="9">
+        <v>2</v>
+      </c>
       <c r="BA16" s="9">
         <v>2</v>
       </c>
@@ -6868,23 +7227,37 @@
       <c r="BK16" s="9">
         <v>2</v>
       </c>
-      <c r="BL16" s="9"/>
-      <c r="BM16" s="9"/>
-      <c r="BN16" s="9"/>
+      <c r="BL16" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM16" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN16" s="9">
+        <v>2</v>
+      </c>
       <c r="BO16" s="9">
         <v>1</v>
       </c>
-      <c r="BP16" s="9"/>
-      <c r="BQ16" s="9"/>
-      <c r="BR16" s="9"/>
-      <c r="BS16" s="34"/>
+      <c r="BP16" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR16" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:71">
       <c r="A17" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C17" s="40">
         <v>3</v>
@@ -7024,14 +7397,18 @@
       <c r="AV17" s="9">
         <v>4</v>
       </c>
-      <c r="AW17" s="9"/>
+      <c r="AW17" s="9">
+        <v>2</v>
+      </c>
       <c r="AX17" s="9">
         <v>2</v>
       </c>
       <c r="AY17" s="9">
         <v>2</v>
       </c>
-      <c r="AZ17" s="9"/>
+      <c r="AZ17" s="9">
+        <v>3</v>
+      </c>
       <c r="BA17" s="9">
         <v>2</v>
       </c>
@@ -7065,21 +7442,35 @@
       <c r="BK17" s="9">
         <v>2</v>
       </c>
-      <c r="BL17" s="9"/>
-      <c r="BM17" s="9"/>
-      <c r="BN17" s="9"/>
+      <c r="BL17" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM17" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN17" s="9">
+        <v>2</v>
+      </c>
       <c r="BO17" s="9">
         <v>2</v>
       </c>
-      <c r="BP17" s="9"/>
-      <c r="BQ17" s="9"/>
-      <c r="BR17" s="9"/>
-      <c r="BS17" s="34"/>
+      <c r="BP17" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ17" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR17" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS17" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:71">
       <c r="A18" s="21"/>
       <c r="B18" s="24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C18" s="40">
         <v>5</v>
@@ -7219,14 +7610,18 @@
       <c r="AV18" s="9">
         <v>4</v>
       </c>
-      <c r="AW18" s="9"/>
+      <c r="AW18" s="9">
+        <v>1</v>
+      </c>
       <c r="AX18" s="9">
         <v>1</v>
       </c>
       <c r="AY18" s="9">
         <v>1</v>
       </c>
-      <c r="AZ18" s="9"/>
+      <c r="AZ18" s="9">
+        <v>2</v>
+      </c>
       <c r="BA18" s="9">
         <v>1</v>
       </c>
@@ -7260,21 +7655,35 @@
       <c r="BK18" s="9">
         <v>2</v>
       </c>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
+      <c r="BL18" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM18" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="9">
+        <v>1</v>
+      </c>
       <c r="BO18" s="9">
         <v>1</v>
       </c>
-      <c r="BP18" s="9"/>
-      <c r="BQ18" s="9"/>
-      <c r="BR18" s="9"/>
-      <c r="BS18" s="34"/>
+      <c r="BP18" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR18" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:71">
       <c r="A19" s="21"/>
       <c r="B19" s="24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C19" s="40">
         <v>3</v>
@@ -7414,14 +7823,18 @@
       <c r="AV19" s="9">
         <v>4</v>
       </c>
-      <c r="AW19" s="9"/>
+      <c r="AW19" s="9">
+        <v>1</v>
+      </c>
       <c r="AX19" s="9">
         <v>2</v>
       </c>
       <c r="AY19" s="9">
         <v>2</v>
       </c>
-      <c r="AZ19" s="9"/>
+      <c r="AZ19" s="9">
+        <v>4</v>
+      </c>
       <c r="BA19" s="9">
         <v>1</v>
       </c>
@@ -7455,21 +7868,35 @@
       <c r="BK19" s="9">
         <v>1</v>
       </c>
-      <c r="BL19" s="9"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
+      <c r="BL19" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM19" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN19" s="9">
+        <v>2</v>
+      </c>
       <c r="BO19" s="9">
         <v>1</v>
       </c>
-      <c r="BP19" s="9"/>
-      <c r="BQ19" s="9"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="34"/>
+      <c r="BP19" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="9">
+        <v>4</v>
+      </c>
+      <c r="BR19" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:71">
       <c r="A20" s="21"/>
       <c r="B20" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="40">
         <v>1</v>
@@ -7609,14 +8036,18 @@
       <c r="AV20" s="9">
         <v>4</v>
       </c>
-      <c r="AW20" s="9"/>
+      <c r="AW20" s="9">
+        <v>2</v>
+      </c>
       <c r="AX20" s="9">
         <v>2</v>
       </c>
       <c r="AY20" s="9">
         <v>1</v>
       </c>
-      <c r="AZ20" s="9"/>
+      <c r="AZ20" s="9">
+        <v>4</v>
+      </c>
       <c r="BA20" s="9">
         <v>3</v>
       </c>
@@ -7650,21 +8081,35 @@
       <c r="BK20" s="9">
         <v>1</v>
       </c>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
+      <c r="BL20" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM20" s="9">
+        <v>1</v>
+      </c>
+      <c r="BN20" s="9">
+        <v>1</v>
+      </c>
       <c r="BO20" s="9">
         <v>3</v>
       </c>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="34"/>
+      <c r="BP20" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="9">
+        <v>4</v>
+      </c>
+      <c r="BR20" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS20" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:71" ht="15" thickBot="1">
       <c r="A21" s="22"/>
       <c r="B21" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C21" s="40">
         <v>4</v>
@@ -7804,14 +8249,18 @@
       <c r="AV21" s="9">
         <v>3</v>
       </c>
-      <c r="AW21" s="9"/>
+      <c r="AW21" s="9">
+        <v>2</v>
+      </c>
       <c r="AX21" s="9">
         <v>2</v>
       </c>
       <c r="AY21" s="9">
         <v>2</v>
       </c>
-      <c r="AZ21" s="9"/>
+      <c r="AZ21" s="9">
+        <v>2</v>
+      </c>
       <c r="BA21" s="9">
         <v>2</v>
       </c>
@@ -7845,24 +8294,38 @@
       <c r="BK21" s="9">
         <v>2</v>
       </c>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
+      <c r="BL21" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM21" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN21" s="9">
+        <v>2</v>
+      </c>
       <c r="BO21" s="9">
         <v>2</v>
       </c>
-      <c r="BP21" s="9"/>
-      <c r="BQ21" s="9"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="34"/>
+      <c r="BP21" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ21" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR21" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS21" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:71">
       <c r="A22" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>205</v>
-      </c>
       <c r="C22" s="40">
         <v>3</v>
       </c>
@@ -8001,14 +8464,18 @@
       <c r="AV22" s="9">
         <v>4</v>
       </c>
-      <c r="AW22" s="9"/>
+      <c r="AW22" s="9">
+        <v>2</v>
+      </c>
       <c r="AX22" s="9">
         <v>2</v>
       </c>
       <c r="AY22" s="9">
         <v>2</v>
       </c>
-      <c r="AZ22" s="9"/>
+      <c r="AZ22" s="9">
+        <v>3</v>
+      </c>
       <c r="BA22" s="9">
         <v>2</v>
       </c>
@@ -8042,21 +8509,35 @@
       <c r="BK22" s="9">
         <v>3</v>
       </c>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
+      <c r="BL22" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM22" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN22" s="9">
+        <v>2</v>
+      </c>
       <c r="BO22" s="9">
         <v>2</v>
       </c>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="34"/>
+      <c r="BP22" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR22" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS22" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:71">
       <c r="A23" s="21"/>
       <c r="B23" s="24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C23" s="40">
         <v>4</v>
@@ -8196,14 +8677,18 @@
       <c r="AV23" s="9">
         <v>5</v>
       </c>
-      <c r="AW23" s="9"/>
+      <c r="AW23" s="9">
+        <v>1</v>
+      </c>
       <c r="AX23" s="9">
         <v>1</v>
       </c>
       <c r="AY23" s="9">
         <v>1</v>
       </c>
-      <c r="AZ23" s="9"/>
+      <c r="AZ23" s="9">
+        <v>2</v>
+      </c>
       <c r="BA23" s="9">
         <v>1</v>
       </c>
@@ -8237,21 +8722,35 @@
       <c r="BK23" s="9">
         <v>4</v>
       </c>
-      <c r="BL23" s="9"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
+      <c r="BL23" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM23" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN23" s="9">
+        <v>2</v>
+      </c>
       <c r="BO23" s="9">
         <v>1</v>
       </c>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="9"/>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="34"/>
+      <c r="BP23" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ23" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR23" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS23" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:71">
       <c r="A24" s="21"/>
       <c r="B24" s="24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C24" s="40">
         <v>4</v>
@@ -8391,14 +8890,18 @@
       <c r="AV24" s="9">
         <v>3</v>
       </c>
-      <c r="AW24" s="9"/>
+      <c r="AW24" s="9">
+        <v>3</v>
+      </c>
       <c r="AX24" s="9">
         <v>4</v>
       </c>
       <c r="AY24" s="9">
         <v>4</v>
       </c>
-      <c r="AZ24" s="9"/>
+      <c r="AZ24" s="9">
+        <v>3</v>
+      </c>
       <c r="BA24" s="9">
         <v>3</v>
       </c>
@@ -8432,21 +8935,35 @@
       <c r="BK24" s="9">
         <v>2</v>
       </c>
-      <c r="BL24" s="9"/>
-      <c r="BM24" s="9"/>
-      <c r="BN24" s="9"/>
+      <c r="BL24" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM24" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN24" s="9">
+        <v>2</v>
+      </c>
       <c r="BO24" s="9">
         <v>3</v>
       </c>
-      <c r="BP24" s="9"/>
-      <c r="BQ24" s="9"/>
-      <c r="BR24" s="9"/>
-      <c r="BS24" s="34"/>
+      <c r="BP24" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ24" s="9">
+        <v>3</v>
+      </c>
+      <c r="BR24" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS24" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:71">
       <c r="A25" s="21"/>
       <c r="B25" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C25" s="40">
         <v>1</v>
@@ -8586,14 +9103,18 @@
       <c r="AV25" s="9">
         <v>4</v>
       </c>
-      <c r="AW25" s="9"/>
+      <c r="AW25" s="9">
+        <v>2</v>
+      </c>
       <c r="AX25" s="9">
         <v>2</v>
       </c>
       <c r="AY25" s="9">
         <v>1</v>
       </c>
-      <c r="AZ25" s="9"/>
+      <c r="AZ25" s="9">
+        <v>3</v>
+      </c>
       <c r="BA25" s="9">
         <v>1</v>
       </c>
@@ -8627,21 +9148,35 @@
       <c r="BK25" s="9">
         <v>1</v>
       </c>
-      <c r="BL25" s="9"/>
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="9"/>
+      <c r="BL25" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM25" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN25" s="9">
+        <v>2</v>
+      </c>
       <c r="BO25" s="9">
         <v>2</v>
       </c>
-      <c r="BP25" s="9"/>
-      <c r="BQ25" s="9"/>
-      <c r="BR25" s="9"/>
-      <c r="BS25" s="34"/>
+      <c r="BP25" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ25" s="9">
+        <v>4</v>
+      </c>
+      <c r="BR25" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS25" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:71" ht="15" thickBot="1">
       <c r="A26" s="22"/>
       <c r="B26" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C26" s="40">
         <v>4</v>
@@ -8781,14 +9316,18 @@
       <c r="AV26" s="9">
         <v>1</v>
       </c>
-      <c r="AW26" s="9"/>
+      <c r="AW26" s="9">
+        <v>3</v>
+      </c>
       <c r="AX26" s="9">
         <v>5</v>
       </c>
       <c r="AY26" s="9">
         <v>3</v>
       </c>
-      <c r="AZ26" s="9"/>
+      <c r="AZ26" s="9">
+        <v>1</v>
+      </c>
       <c r="BA26" s="9">
         <v>4</v>
       </c>
@@ -8823,24 +9362,36 @@
         <v>1</v>
       </c>
       <c r="BL26" s="9">
-        <v>4</v>
-      </c>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="BM26" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN26" s="9">
+        <v>3</v>
+      </c>
       <c r="BO26" s="9">
         <v>1</v>
       </c>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="9"/>
-      <c r="BR26" s="9"/>
-      <c r="BS26" s="34"/>
+      <c r="BP26" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ26" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR26" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS26" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:71">
       <c r="A27" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C27" s="40">
         <v>3</v>
@@ -8980,14 +9531,18 @@
       <c r="AV27" s="9">
         <v>3</v>
       </c>
-      <c r="AW27" s="9"/>
+      <c r="AW27" s="9">
+        <v>1</v>
+      </c>
       <c r="AX27" s="9">
         <v>2</v>
       </c>
       <c r="AY27" s="9">
         <v>2</v>
       </c>
-      <c r="AZ27" s="9"/>
+      <c r="AZ27" s="9">
+        <v>3</v>
+      </c>
       <c r="BA27" s="9">
         <v>1</v>
       </c>
@@ -9021,21 +9576,35 @@
       <c r="BK27" s="9">
         <v>3</v>
       </c>
-      <c r="BL27" s="9"/>
-      <c r="BM27" s="9"/>
-      <c r="BN27" s="9"/>
+      <c r="BL27" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM27" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN27" s="9">
+        <v>2</v>
+      </c>
       <c r="BO27" s="9">
         <v>3</v>
       </c>
-      <c r="BP27" s="9"/>
-      <c r="BQ27" s="9"/>
-      <c r="BR27" s="9"/>
-      <c r="BS27" s="34"/>
+      <c r="BP27" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ27" s="9">
+        <v>4</v>
+      </c>
+      <c r="BR27" s="9">
+        <v>4</v>
+      </c>
+      <c r="BS27" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:71">
       <c r="A28" s="21"/>
       <c r="B28" s="24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C28" s="40">
         <v>4</v>
@@ -9175,14 +9744,18 @@
       <c r="AV28" s="9">
         <v>5</v>
       </c>
-      <c r="AW28" s="9"/>
+      <c r="AW28" s="9">
+        <v>1</v>
+      </c>
       <c r="AX28" s="9">
         <v>1</v>
       </c>
       <c r="AY28" s="9">
         <v>1</v>
       </c>
-      <c r="AZ28" s="9"/>
+      <c r="AZ28" s="9">
+        <v>2</v>
+      </c>
       <c r="BA28" s="9">
         <v>1</v>
       </c>
@@ -9216,21 +9789,35 @@
       <c r="BK28" s="9">
         <v>4</v>
       </c>
-      <c r="BL28" s="9"/>
-      <c r="BM28" s="9"/>
-      <c r="BN28" s="9"/>
+      <c r="BL28" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM28" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN28" s="9">
+        <v>2</v>
+      </c>
       <c r="BO28" s="9">
         <v>1</v>
       </c>
-      <c r="BP28" s="9"/>
-      <c r="BQ28" s="9"/>
-      <c r="BR28" s="9"/>
-      <c r="BS28" s="34"/>
+      <c r="BP28" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ28" s="9">
+        <v>5</v>
+      </c>
+      <c r="BR28" s="9">
+        <v>4</v>
+      </c>
+      <c r="BS28" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:71">
       <c r="A29" s="21"/>
       <c r="B29" s="24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C29" s="40">
         <v>4</v>
@@ -9370,14 +9957,18 @@
       <c r="AV29" s="9">
         <v>4</v>
       </c>
-      <c r="AW29" s="9"/>
+      <c r="AW29" s="9">
+        <v>3</v>
+      </c>
       <c r="AX29" s="9">
         <v>4</v>
       </c>
       <c r="AY29" s="9">
         <v>4</v>
       </c>
-      <c r="AZ29" s="9"/>
+      <c r="AZ29" s="9">
+        <v>4</v>
+      </c>
       <c r="BA29" s="9">
         <v>3</v>
       </c>
@@ -9411,21 +10002,35 @@
       <c r="BK29" s="9">
         <v>2</v>
       </c>
-      <c r="BL29" s="9"/>
-      <c r="BM29" s="9"/>
-      <c r="BN29" s="9"/>
+      <c r="BL29" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM29" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN29" s="9">
+        <v>2</v>
+      </c>
       <c r="BO29" s="9">
         <v>3</v>
       </c>
-      <c r="BP29" s="9"/>
-      <c r="BQ29" s="9"/>
-      <c r="BR29" s="9"/>
-      <c r="BS29" s="34"/>
+      <c r="BP29" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ29" s="9">
+        <v>5</v>
+      </c>
+      <c r="BR29" s="9">
+        <v>4</v>
+      </c>
+      <c r="BS29" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:71">
       <c r="A30" s="21"/>
       <c r="B30" s="24" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C30" s="40">
         <v>1</v>
@@ -9565,14 +10170,18 @@
       <c r="AV30" s="9">
         <v>4</v>
       </c>
-      <c r="AW30" s="9"/>
+      <c r="AW30" s="9">
+        <v>2</v>
+      </c>
       <c r="AX30" s="9">
         <v>2</v>
       </c>
       <c r="AY30" s="9">
         <v>1</v>
       </c>
-      <c r="AZ30" s="9"/>
+      <c r="AZ30" s="9">
+        <v>3</v>
+      </c>
       <c r="BA30" s="9">
         <v>1</v>
       </c>
@@ -9606,21 +10215,35 @@
       <c r="BK30" s="9">
         <v>1</v>
       </c>
-      <c r="BL30" s="9"/>
-      <c r="BM30" s="9"/>
-      <c r="BN30" s="9"/>
+      <c r="BL30" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM30" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN30" s="9">
+        <v>2</v>
+      </c>
       <c r="BO30" s="9">
         <v>3</v>
       </c>
-      <c r="BP30" s="9"/>
-      <c r="BQ30" s="9"/>
-      <c r="BR30" s="9"/>
-      <c r="BS30" s="34"/>
+      <c r="BP30" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ30" s="9">
+        <v>4</v>
+      </c>
+      <c r="BR30" s="9">
+        <v>3</v>
+      </c>
+      <c r="BS30" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:71" ht="15" thickBot="1">
       <c r="A31" s="22"/>
       <c r="B31" s="25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" s="40">
         <v>4</v>
@@ -9760,14 +10383,18 @@
       <c r="AV31" s="9">
         <v>1</v>
       </c>
-      <c r="AW31" s="9"/>
+      <c r="AW31" s="9">
+        <v>3</v>
+      </c>
       <c r="AX31" s="9">
         <v>5</v>
       </c>
       <c r="AY31" s="9">
         <v>3</v>
       </c>
-      <c r="AZ31" s="9"/>
+      <c r="AZ31" s="9">
+        <v>1</v>
+      </c>
       <c r="BA31" s="9">
         <v>4</v>
       </c>
@@ -9802,24 +10429,36 @@
         <v>1</v>
       </c>
       <c r="BL31" s="9">
-        <v>4</v>
-      </c>
-      <c r="BM31" s="9"/>
-      <c r="BN31" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="BM31" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN31" s="9">
+        <v>3</v>
+      </c>
       <c r="BO31" s="9">
         <v>1</v>
       </c>
-      <c r="BP31" s="9"/>
-      <c r="BQ31" s="9"/>
-      <c r="BR31" s="9"/>
-      <c r="BS31" s="34"/>
+      <c r="BP31" s="9">
+        <v>2</v>
+      </c>
+      <c r="BQ31" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR31" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS31" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:71">
       <c r="A32" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C32" s="40">
         <v>3</v>
@@ -9959,14 +10598,18 @@
       <c r="AV32" s="9">
         <v>4</v>
       </c>
-      <c r="AW32" s="9"/>
+      <c r="AW32" s="9">
+        <v>2</v>
+      </c>
       <c r="AX32" s="9">
         <v>3</v>
       </c>
       <c r="AY32" s="9">
         <v>2</v>
       </c>
-      <c r="AZ32" s="9"/>
+      <c r="AZ32" s="9">
+        <v>2</v>
+      </c>
       <c r="BA32" s="9">
         <v>2</v>
       </c>
@@ -10000,21 +10643,35 @@
       <c r="BK32" s="9">
         <v>3</v>
       </c>
-      <c r="BL32" s="9"/>
-      <c r="BM32" s="9"/>
-      <c r="BN32" s="9"/>
+      <c r="BL32" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM32" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN32" s="9">
+        <v>2</v>
+      </c>
       <c r="BO32" s="9">
         <v>2</v>
       </c>
-      <c r="BP32" s="9"/>
-      <c r="BQ32" s="9"/>
-      <c r="BR32" s="9"/>
-      <c r="BS32" s="34"/>
+      <c r="BP32" s="9">
+        <v>3</v>
+      </c>
+      <c r="BQ32" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR32" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS32" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:71">
       <c r="A33" s="21"/>
       <c r="B33" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C33" s="40">
         <v>2</v>
@@ -10154,14 +10811,18 @@
       <c r="AV33" s="9">
         <v>3</v>
       </c>
-      <c r="AW33" s="9"/>
+      <c r="AW33" s="9">
+        <v>1</v>
+      </c>
       <c r="AX33" s="9">
         <v>3</v>
       </c>
       <c r="AY33" s="9">
         <v>1</v>
       </c>
-      <c r="AZ33" s="9"/>
+      <c r="AZ33" s="9">
+        <v>2</v>
+      </c>
       <c r="BA33" s="9">
         <v>2</v>
       </c>
@@ -10195,21 +10856,35 @@
       <c r="BK33" s="9">
         <v>4</v>
       </c>
-      <c r="BL33" s="9"/>
-      <c r="BM33" s="9"/>
-      <c r="BN33" s="9"/>
+      <c r="BL33" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM33" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN33" s="9">
+        <v>2</v>
+      </c>
       <c r="BO33" s="9">
         <v>2</v>
       </c>
-      <c r="BP33" s="9"/>
-      <c r="BQ33" s="9"/>
-      <c r="BR33" s="9"/>
-      <c r="BS33" s="34"/>
+      <c r="BP33" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ33" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR33" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS33" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:71" ht="15" thickBot="1">
       <c r="A34" s="21"/>
       <c r="B34" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" s="40">
         <v>1</v>
@@ -10349,14 +11024,18 @@
       <c r="AV34" s="9">
         <v>4</v>
       </c>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9">
-        <v>2</v>
-      </c>
-      <c r="AY34" s="9">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="9"/>
+      <c r="AW34" s="35">
+        <v>2</v>
+      </c>
+      <c r="AX34" s="35">
+        <v>2</v>
+      </c>
+      <c r="AY34" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="35">
+        <v>2</v>
+      </c>
       <c r="BA34" s="9">
         <v>2</v>
       </c>
@@ -10390,23 +11069,37 @@
       <c r="BK34" s="9">
         <v>1</v>
       </c>
-      <c r="BL34" s="9"/>
-      <c r="BM34" s="9"/>
-      <c r="BN34" s="9"/>
+      <c r="BL34" s="9">
+        <v>3</v>
+      </c>
+      <c r="BM34" s="9">
+        <v>2</v>
+      </c>
+      <c r="BN34" s="9">
+        <v>2</v>
+      </c>
       <c r="BO34" s="9">
         <v>2</v>
       </c>
-      <c r="BP34" s="9"/>
-      <c r="BQ34" s="9"/>
-      <c r="BR34" s="9"/>
-      <c r="BS34" s="34"/>
+      <c r="BP34" s="9">
+        <v>1</v>
+      </c>
+      <c r="BQ34" s="9">
+        <v>2</v>
+      </c>
+      <c r="BR34" s="9">
+        <v>1</v>
+      </c>
+      <c r="BS34" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:71">
       <c r="A35" s="42" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C35" s="37">
         <v>5</v>
@@ -10546,14 +11239,18 @@
       <c r="AV35" s="38">
         <v>5</v>
       </c>
-      <c r="AW35" s="9"/>
+      <c r="AW35" s="9">
+        <v>1</v>
+      </c>
       <c r="AX35" s="9">
         <v>1</v>
       </c>
       <c r="AY35" s="9">
         <v>1</v>
       </c>
-      <c r="AZ35" s="9"/>
+      <c r="AZ35" s="9">
+        <v>3</v>
+      </c>
       <c r="BA35" s="38">
         <v>1</v>
       </c>
@@ -10587,21 +11284,35 @@
       <c r="BK35" s="38">
         <v>3</v>
       </c>
-      <c r="BL35" s="38"/>
-      <c r="BM35" s="38"/>
-      <c r="BN35" s="38"/>
+      <c r="BL35" s="38">
+        <v>3</v>
+      </c>
+      <c r="BM35" s="38">
+        <v>3</v>
+      </c>
+      <c r="BN35" s="38">
+        <v>2</v>
+      </c>
       <c r="BO35" s="38">
         <v>2</v>
       </c>
-      <c r="BP35" s="38"/>
-      <c r="BQ35" s="38"/>
-      <c r="BR35" s="38"/>
-      <c r="BS35" s="39"/>
+      <c r="BP35" s="38">
+        <v>1</v>
+      </c>
+      <c r="BQ35" s="38">
+        <v>5</v>
+      </c>
+      <c r="BR35" s="38">
+        <v>4</v>
+      </c>
+      <c r="BS35" s="39">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:71">
       <c r="A36" s="43"/>
       <c r="B36" s="46" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C36" s="40">
         <v>6</v>
@@ -10741,14 +11452,18 @@
       <c r="AV36" s="9">
         <v>1</v>
       </c>
-      <c r="AW36" s="9"/>
+      <c r="AW36" s="9">
+        <v>3</v>
+      </c>
       <c r="AX36" s="9">
         <v>5</v>
       </c>
       <c r="AY36" s="9">
         <v>5</v>
       </c>
-      <c r="AZ36" s="9"/>
+      <c r="AZ36" s="9">
+        <v>5</v>
+      </c>
       <c r="BA36" s="9">
         <v>4</v>
       </c>
@@ -10785,20 +11500,32 @@
       <c r="BL36" s="9">
         <v>4</v>
       </c>
-      <c r="BM36" s="9"/>
-      <c r="BN36" s="9"/>
+      <c r="BM36" s="9">
+        <v>3</v>
+      </c>
+      <c r="BN36" s="9">
+        <v>3</v>
+      </c>
       <c r="BO36" s="9">
         <v>4</v>
       </c>
-      <c r="BP36" s="9"/>
-      <c r="BQ36" s="9"/>
-      <c r="BR36" s="9"/>
-      <c r="BS36" s="34"/>
+      <c r="BP36" s="9">
+        <v>4</v>
+      </c>
+      <c r="BQ36" s="9">
+        <v>6</v>
+      </c>
+      <c r="BR36" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS36" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:71">
       <c r="A37" s="43"/>
       <c r="B37" s="46" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C37" s="40">
         <v>6</v>
@@ -10938,14 +11665,18 @@
       <c r="AV37" s="9">
         <v>1</v>
       </c>
-      <c r="AW37" s="9"/>
+      <c r="AW37" s="9">
+        <v>3</v>
+      </c>
       <c r="AX37" s="9">
         <v>5</v>
       </c>
       <c r="AY37" s="9">
         <v>5</v>
       </c>
-      <c r="AZ37" s="9"/>
+      <c r="AZ37" s="9">
+        <v>5</v>
+      </c>
       <c r="BA37" s="9">
         <v>4</v>
       </c>
@@ -10982,20 +11713,32 @@
       <c r="BL37" s="9">
         <v>4</v>
       </c>
-      <c r="BM37" s="9"/>
-      <c r="BN37" s="9"/>
+      <c r="BM37" s="9">
+        <v>4</v>
+      </c>
+      <c r="BN37" s="9">
+        <v>3</v>
+      </c>
       <c r="BO37" s="9">
         <v>4</v>
       </c>
-      <c r="BP37" s="9"/>
-      <c r="BQ37" s="9"/>
-      <c r="BR37" s="9"/>
-      <c r="BS37" s="34"/>
+      <c r="BP37" s="9">
+        <v>4</v>
+      </c>
+      <c r="BQ37" s="9">
+        <v>6</v>
+      </c>
+      <c r="BR37" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS37" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:71" ht="15" thickBot="1">
       <c r="A38" s="44"/>
       <c r="B38" s="47" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C38" s="41">
         <v>5</v>
@@ -11135,14 +11878,18 @@
       <c r="AV38" s="35">
         <v>1</v>
       </c>
-      <c r="AW38" s="35"/>
+      <c r="AW38" s="35">
+        <v>3</v>
+      </c>
       <c r="AX38" s="35">
         <v>5</v>
       </c>
       <c r="AY38" s="35">
         <v>5</v>
       </c>
-      <c r="AZ38" s="35"/>
+      <c r="AZ38" s="35">
+        <v>5</v>
+      </c>
       <c r="BA38" s="35">
         <v>4</v>
       </c>
@@ -11179,15 +11926,27 @@
       <c r="BL38" s="35">
         <v>4</v>
       </c>
-      <c r="BM38" s="35"/>
-      <c r="BN38" s="35"/>
+      <c r="BM38" s="35">
+        <v>3</v>
+      </c>
+      <c r="BN38" s="35">
+        <v>3</v>
+      </c>
       <c r="BO38" s="35">
         <v>4</v>
       </c>
-      <c r="BP38" s="35"/>
-      <c r="BQ38" s="35"/>
-      <c r="BR38" s="35"/>
-      <c r="BS38" s="36"/>
+      <c r="BP38" s="35">
+        <v>4</v>
+      </c>
+      <c r="BQ38" s="35">
+        <v>6</v>
+      </c>
+      <c r="BR38" s="35">
+        <v>2</v>
+      </c>
+      <c r="BS38" s="36">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
